--- a/phpdocx/template/MasterExcelFile.xlsx
+++ b/phpdocx/template/MasterExcelFile.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
   <si>
     <t>Shareholding Pattern</t>
   </si>
@@ -221,17 +221,37 @@
   <si>
     <t>Company</t>
   </si>
+  <si>
+    <t>CSR</t>
+  </si>
+  <si>
+    <t>CSR as % of Net Profit</t>
+  </si>
+  <si>
+    <t>Jun'10</t>
+  </si>
+  <si>
+    <t>Jun'11</t>
+  </si>
+  <si>
+    <t>Jun'12</t>
+  </si>
+  <si>
+    <t>Jun'13</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="171" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="172" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -627,7 +647,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
@@ -635,8 +655,9 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -750,11 +771,21 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
     <cellStyle name="Comma 2" xfId="5"/>
     <cellStyle name="Comma 3" xfId="6"/>
+    <cellStyle name="Comma 4" xfId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Note" xfId="4" builtinId="10"/>
@@ -954,11 +985,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF000000"/>
+      <color rgb="FF464646"/>
       <color rgb="FFFFD200"/>
       <color rgb="FFD9D9D9"/>
-      <color rgb="FF464646"/>
       <color rgb="FF0000FF"/>
-      <color rgb="FF000000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1371,11 +1402,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="296111800"/>
-        <c:axId val="296113760"/>
+        <c:axId val="286240608"/>
+        <c:axId val="287058936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="296111800"/>
+        <c:axId val="286240608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1385,7 +1416,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="296113760"/>
+        <c:crossAx val="287058936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1393,7 +1424,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="296113760"/>
+        <c:axId val="287058936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1404,7 +1435,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="296111800"/>
+        <c:crossAx val="286240608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1542,6 +1573,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1606,6 +1638,123 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Audit Related Fee</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$96:$E$96</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>FY 12/13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FY 13/14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FY 14/15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$98:$E$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.5900000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12039999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$99</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Non Audit Fee </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1656,6 +1805,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1693,122 +1843,6 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$98:$E$98</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>4.5900000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.5999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.12039999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$99</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Non Audit Fee </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="65000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$96:$E$96</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>FY 12/13</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>FY 13/14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>FY 14/15</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
               <c:f>Sheet1!$C$99:$E$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -1836,11 +1870,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="297211440"/>
-        <c:axId val="297210264"/>
+        <c:axId val="288002184"/>
+        <c:axId val="288002968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="297211440"/>
+        <c:axId val="288002184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1880,7 +1914,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297210264"/>
+        <c:crossAx val="288002968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1888,7 +1922,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="297210264"/>
+        <c:axId val="288002968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1999,7 +2033,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297211440"/>
+        <c:crossAx val="288002184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.000000000000001E-2"/>
@@ -2197,8 +2231,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="297213400"/>
-        <c:axId val="297216536"/>
+        <c:axId val="288004928"/>
+        <c:axId val="289435864"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2359,11 +2393,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="297216928"/>
-        <c:axId val="297214576"/>
+        <c:axId val="289437432"/>
+        <c:axId val="289431552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="297213400"/>
+        <c:axId val="288004928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2391,7 +2425,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297216536"/>
+        <c:crossAx val="289435864"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2399,7 +2433,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="297216536"/>
+        <c:axId val="289435864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -2464,12 +2498,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297213400"/>
+        <c:crossAx val="288004928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="297214576"/>
+        <c:axId val="289431552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2479,12 +2513,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="297216928"/>
+        <c:crossAx val="289437432"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="297216928"/>
+        <c:axId val="289437432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2494,7 +2528,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="297214576"/>
+        <c:crossAx val="289431552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2671,6 +2705,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2720,11 +2755,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="297213792"/>
-        <c:axId val="297215360"/>
+        <c:axId val="289432728"/>
+        <c:axId val="289438608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="297213792"/>
+        <c:axId val="289432728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2744,7 +2779,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297215360"/>
+        <c:crossAx val="289438608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2752,7 +2787,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="297215360"/>
+        <c:axId val="289438608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2772,7 +2807,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297213792"/>
+        <c:crossAx val="289432728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2890,6 +2925,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2951,11 +2987,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="297209872"/>
-        <c:axId val="297217320"/>
+        <c:axId val="289437040"/>
+        <c:axId val="289433120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="297209872"/>
+        <c:axId val="289437040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2975,7 +3011,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297217320"/>
+        <c:crossAx val="289433120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2983,7 +3019,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="297217320"/>
+        <c:axId val="289433120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3003,7 +3039,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297209872"/>
+        <c:crossAx val="289437040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3336,11 +3372,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="297210656"/>
-        <c:axId val="297211832"/>
+        <c:axId val="289437824"/>
+        <c:axId val="289433904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="297210656"/>
+        <c:axId val="289437824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3360,7 +3396,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297211832"/>
+        <c:crossAx val="289433904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3368,7 +3404,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="297211832"/>
+        <c:axId val="289433904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3388,7 +3424,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297210656"/>
+        <c:crossAx val="289437824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3633,7 +3669,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:srgbClr val="FFC000"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3737,11 +3773,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="297213008"/>
-        <c:axId val="297212224"/>
+        <c:axId val="289438216"/>
+        <c:axId val="289436256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="297213008"/>
+        <c:axId val="289438216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3781,7 +3817,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297212224"/>
+        <c:crossAx val="289436256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3789,7 +3825,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="297212224"/>
+        <c:axId val="289436256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3828,7 +3864,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297213008"/>
+        <c:crossAx val="289438216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3913,6 +3949,912 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13708910976291899"/>
+          <c:y val="0.17478642092815322"/>
+          <c:w val="0.85133565621370588"/>
+          <c:h val="0.58648611231288406"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF">
+                <a:lumMod val="85000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="EB641B"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$493:$C$496</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Jun'10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jun'11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Jun'12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jun'13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$493:$D$496</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.27529999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35139999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35349999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42509999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:axId val="332114936"/>
+        <c:axId val="332118856"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="332114936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="332118856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="332118856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="332114936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln w="3175">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId2"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13708910976291899"/>
+          <c:y val="0.17478642092815322"/>
+          <c:w val="0.85133565621370588"/>
+          <c:h val="0.58648611231288406"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF">
+                <a:lumMod val="85000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="EB641B"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$504:$C$507</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Jun'10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jun'11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Jun'12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jun'13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$504:$D$507</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.27529999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35139999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35349999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42509999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:axId val="411204608"/>
+        <c:axId val="288553112"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="411204608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="288553112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="288553112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="411204608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln w="3175">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId2"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1401978782921591"/>
+          <c:y val="6.7712909339716562E-2"/>
+          <c:w val="0.67105686789151364"/>
+          <c:h val="0.64664125129155237"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$515</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CSR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="EB641B"/>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.4401821803252382E-3"/>
+                  <c:y val="2.4112661188156127E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$516:$C$518</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>FY 12/13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FY 13/14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FY 14/15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$516:$D$518</c:f>
+              <c:numCache>
+                <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:axId val="411203432"/>
+        <c:axId val="411196376"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$515</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CSR as % of Net Profit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$516:$C$518</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>FY 12/13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FY 13/14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FY 14/15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$516:$E$518</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="411203824"/>
+        <c:axId val="411200688"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="411203432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="411196376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="411196376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="900"/>
+                  <a:t>CSR Contributions (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="900">
+                    <a:latin typeface="Rupee Foradian"/>
+                  </a:rPr>
+                  <a:t>` </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="900">
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Crore)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="411203432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="411200688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="900"/>
+                  <a:t>CSR as %</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="900" baseline="0"/>
+                  <a:t> of net profit</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="900"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="411203824"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="411203824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="411200688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.6718495631084089E-3"/>
+          <c:y val="0.80054773696274395"/>
+          <c:w val="0.99732811585515846"/>
+          <c:h val="0.13943349841450822"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId2"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
@@ -3934,9 +4876,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="1.1851851851851851E-2"/>
+          <c:x val="0.20919817190683335"/>
           <c:y val="2.9962546816479401E-2"/>
-          <c:w val="0.98222222222222222"/>
+          <c:w val="0.79080182809316668"/>
           <c:h val="0.64584926884139471"/>
         </c:manualLayout>
       </c:layout>
@@ -4007,6 +4949,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4120,6 +5063,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4178,11 +5122,11 @@
         </c:dLbls>
         <c:gapWidth val="90"/>
         <c:overlap val="-27"/>
-        <c:axId val="296113368"/>
-        <c:axId val="296111016"/>
+        <c:axId val="287533808"/>
+        <c:axId val="288333672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="296113368"/>
+        <c:axId val="287533808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4194,12 +5138,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:srgbClr val="464646"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -4222,7 +5163,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296111016"/>
+        <c:crossAx val="288333672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4230,17 +5171,106 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="296111016"/>
+        <c:axId val="288333672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="&quot;₹&quot;\ #,##0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>In  Crores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="296113368"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="287533808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4404,7 +5434,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4423,7 +5455,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4442,7 +5476,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4461,7 +5497,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="&quot;₹&quot;\ #,##0.00" sourceLinked="0"/>
@@ -4491,6 +5529,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4555,8 +5594,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="296112976"/>
-        <c:axId val="296110624"/>
+        <c:axId val="288333280"/>
+        <c:axId val="288334456"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4613,7 +5652,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4632,7 +5673,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -4664,6 +5707,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4725,11 +5769,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="296114152"/>
-        <c:axId val="296112192"/>
+        <c:axId val="288332888"/>
+        <c:axId val="288331320"/>
       </c:lineChart>
       <c:valAx>
-        <c:axId val="296110624"/>
+        <c:axId val="288334456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4780,12 +5824,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296112976"/>
+        <c:crossAx val="288333280"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="296112976"/>
+        <c:axId val="288333280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4805,7 +5849,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296110624"/>
+        <c:crossAx val="288334456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4813,7 +5857,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="296112192"/>
+        <c:axId val="288331320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4864,12 +5908,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296114152"/>
+        <c:crossAx val="288332888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="296114152"/>
+        <c:axId val="288332888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4879,7 +5923,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="296112192"/>
+        <c:crossAx val="288331320"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5018,7 +6062,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
@@ -5052,6 +6098,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -5148,6 +6195,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -5198,8 +6246,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="296400328"/>
-        <c:axId val="296399544"/>
+        <c:axId val="288331712"/>
+        <c:axId val="288332104"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5262,7 +6310,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -5281,7 +6331,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -5300,7 +6352,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="0.00%" sourceLinked="0"/>
@@ -5383,11 +6437,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="296404248"/>
-        <c:axId val="296400720"/>
+        <c:axId val="288004536"/>
+        <c:axId val="288332496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="296400328"/>
+        <c:axId val="288331712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5407,7 +6461,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296399544"/>
+        <c:crossAx val="288332104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5415,7 +6469,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="296399544"/>
+        <c:axId val="288332104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5437,6 +6491,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
@@ -5453,12 +6508,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296400328"/>
+        <c:crossAx val="288331712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="296400720"/>
+        <c:axId val="288332496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5505,12 +6560,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296404248"/>
+        <c:crossAx val="288004536"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="296404248"/>
+        <c:axId val="288004536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5520,7 +6575,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="296400720"/>
+        <c:crossAx val="288332496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5687,7 +6742,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -5807,11 +6864,11 @@
         </c:dLbls>
         <c:bubbleScale val="100"/>
         <c:showNegBubbles val="0"/>
-        <c:axId val="296401112"/>
-        <c:axId val="296401896"/>
+        <c:axId val="288002576"/>
+        <c:axId val="288001008"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="296401112"/>
+        <c:axId val="288002576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5849,6 +6906,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5865,12 +6923,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296401896"/>
+        <c:crossAx val="288001008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="296401896"/>
+        <c:axId val="288001008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5908,6 +6966,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5924,7 +6983,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296401112"/>
+        <c:crossAx val="288002576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6022,7 +7081,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -6051,6 +7112,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -6146,6 +7208,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -6222,7 +7285,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -6240,7 +7305,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -6258,7 +7325,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -6336,11 +7405,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="296398760"/>
-        <c:axId val="296404640"/>
+        <c:axId val="288000224"/>
+        <c:axId val="288007280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="296398760"/>
+        <c:axId val="288000224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6360,7 +7429,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296404640"/>
+        <c:crossAx val="288007280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6368,7 +7437,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="296404640"/>
+        <c:axId val="288007280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6378,7 +7447,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="296398760"/>
+        <c:crossAx val="288000224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8412,11 +9481,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="296402680"/>
-        <c:axId val="296403464"/>
+        <c:axId val="288006496"/>
+        <c:axId val="287999832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="296402680"/>
+        <c:axId val="288006496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="41449"/>
@@ -8438,7 +9507,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296403464"/>
+        <c:crossAx val="287999832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -8447,7 +9516,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="296403464"/>
+        <c:axId val="287999832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="300"/>
@@ -8482,7 +9551,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296402680"/>
+        <c:crossAx val="288006496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8624,6 +9693,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -8705,6 +9775,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -8776,7 +9847,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -8810,6 +9883,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -8854,11 +9928,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="296397192"/>
-        <c:axId val="296403856"/>
+        <c:axId val="288005320"/>
+        <c:axId val="288004144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="296397192"/>
+        <c:axId val="288005320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8878,7 +9952,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296403856"/>
+        <c:crossAx val="288004144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8886,7 +9960,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="296403856"/>
+        <c:axId val="288004144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8906,7 +9980,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296397192"/>
+        <c:crossAx val="288005320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -8960,9 +10034,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0"/>
-          <c:y val="0.79741168540702845"/>
-          <c:w val="0.85419247237679807"/>
-          <c:h val="0.16731640062501912"/>
+          <c:y val="0.80778782029678198"/>
+          <c:w val="1"/>
+          <c:h val="0.10505959128649774"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -9117,7 +10191,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -9285,7 +10361,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -11547,6 +12625,96 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>490</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>532765</xdr:colOff>
+      <xdr:row>499</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Chart 18"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>501</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>570865</xdr:colOff>
+      <xdr:row>511</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="Chart 20"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>513</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>525</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="22" name="Object 45"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12472,6 +13640,372 @@
 </c:userShapes>
 </file>
 
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00697</cdr:x>
+      <cdr:y>0.89011</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="Text Box 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="20249" y="1543050"/>
+          <a:ext cx="2884876" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="900"/>
+            <a:t>Graph</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="900" baseline="0"/>
+            <a:t> xx: FII Shareholding in the Company</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="900"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.12637</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Rectangle 1"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="0"/>
+          <a:ext cx="2787015" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1"/>
+            <a:t>FII Shareholdiing</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00697</cdr:x>
+      <cdr:y>0.89011</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="Text Box 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="20249" y="1543050"/>
+          <a:ext cx="2884876" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="900"/>
+            <a:t>Graph</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="900" baseline="0"/>
+            <a:t> xx: FII Shareholding in the Company</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="900"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.12637</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Rectangle 1"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="0"/>
+          <a:ext cx="2787015" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1"/>
+            <a:t>Promoter Shareholdiing</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.91075</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.91125</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="Text Box 19"/>
+        <cdr:cNvSpPr txBox="1">
+          <a:spLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
+        </cdr:cNvSpPr>
+      </cdr:nvSpPr>
+      <cdr:spPr bwMode="auto">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="2219324"/>
+          <a:ext cx="3305175" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+        <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="900"/>
+            <a:t>Graph1: Peer comparison of Price/ Earnings ratio</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.89857</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.97396</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="7" name="Text Box 20"/>
+        <cdr:cNvSpPr txBox="1">
+          <a:spLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
+        </cdr:cNvSpPr>
+      </cdr:nvSpPr>
+      <cdr:spPr bwMode="auto">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="1643302"/>
+          <a:ext cx="2581275" cy="137873"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+        <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:effectLst/>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Graph xx: CSR Contributions vs</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> Net Profits</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="900"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
@@ -12616,7 +14150,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-IN" sz="900" baseline="0"/>
-            <a:t> Average director remuneratiion</a:t>
+            <a:t> Average Director Remuneration</a:t>
           </a:r>
           <a:endParaRPr lang="en-IN" sz="900"/>
         </a:p>
@@ -14142,6 +15676,448 @@
       <a:font script="Viet" typeface="Arial"/>
       <a:font script="Uigh" typeface="Microsoft Uighur"/>
       <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="50000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="35000">
+            <a:schemeClr val="phClr">
+              <a:tint val="37000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:tint val="15000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="1"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:shade val="51000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="80000">
+            <a:schemeClr val="phClr">
+              <a:shade val="93000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="94000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t">
+            <a:rot lat="0" lon="0" rev="1200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="63500" h="25400"/>
+        </a:sp3d>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="40000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="40000">
+            <a:schemeClr val="phClr">
+              <a:tint val="45000"/>
+              <a:shade val="99000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="20000"/>
+              <a:satMod val="255000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="80000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="30000"/>
+              <a:satMod val="200000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride10.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Custom 2">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="464646"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="DEF5FA"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="2DA2BF"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="DA1F28"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="EB641B"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="464646"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="FFD200"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="002060"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="FF8119"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="44B9E8"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Custom 2">
+    <a:majorFont>
+      <a:latin typeface="Century Gothic"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="50000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="35000">
+            <a:schemeClr val="phClr">
+              <a:tint val="37000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:tint val="15000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="1"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:shade val="51000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="80000">
+            <a:schemeClr val="phClr">
+              <a:shade val="93000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="94000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t">
+            <a:rot lat="0" lon="0" rev="1200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="63500" h="25400"/>
+        </a:sp3d>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="40000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="40000">
+            <a:schemeClr val="phClr">
+              <a:tint val="45000"/>
+              <a:shade val="99000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="20000"/>
+              <a:satMod val="255000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="80000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="30000"/>
+              <a:satMod val="200000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride11.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Custom 2">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="464646"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="DEF5FA"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="2DA2BF"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="DA1F28"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="EB641B"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="464646"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="FFD200"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="002060"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="FF8119"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="44B9E8"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Custom 2">
+    <a:majorFont>
+      <a:latin typeface="Century Gothic"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
     </a:minorFont>
   </a:fontScheme>
   <a:fmtScheme name="Office">
@@ -15920,16 +17896,235 @@
 </a:themeOverride>
 </file>
 
+<file path=xl/theme/themeOverride9.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Custom 2">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="464646"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="DEF5FA"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="2DA2BF"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="DA1F28"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="EB641B"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="464646"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="FFD200"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="002060"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="FF8119"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="44B9E8"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Custom 2">
+    <a:majorFont>
+      <a:latin typeface="Century Gothic"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="50000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="35000">
+            <a:schemeClr val="phClr">
+              <a:tint val="37000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:tint val="15000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="1"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:shade val="51000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="80000">
+            <a:schemeClr val="phClr">
+              <a:shade val="93000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="94000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t">
+            <a:rot lat="0" lon="0" rev="1200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="63500" h="25400"/>
+        </a:sp3d>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="40000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="40000">
+            <a:schemeClr val="phClr">
+              <a:tint val="45000"/>
+              <a:shade val="99000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="20000"/>
+              <a:satMod val="255000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="80000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="30000"/>
+              <a:satMod val="200000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="B3:S485"/>
+  <dimension ref="B3:S518"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -19392,6 +21587,128 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="492" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C492" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="D492" s="61"/>
+    </row>
+    <row r="493" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C493" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="D493" s="63">
+        <v>0.27529999999999999</v>
+      </c>
+    </row>
+    <row r="494" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C494" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="D494" s="63">
+        <v>0.35139999999999999</v>
+      </c>
+    </row>
+    <row r="495" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C495" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="D495" s="63">
+        <v>0.35349999999999998</v>
+      </c>
+    </row>
+    <row r="496" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C496" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D496" s="63">
+        <v>0.42509999999999998</v>
+      </c>
+    </row>
+    <row r="504" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C504" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="D504" s="65">
+        <v>0.27529999999999999</v>
+      </c>
+    </row>
+    <row r="505" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C505" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="D505" s="65">
+        <v>0.35139999999999999</v>
+      </c>
+    </row>
+    <row r="506" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C506" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="D506" s="65">
+        <v>0.35349999999999998</v>
+      </c>
+    </row>
+    <row r="507" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C507" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="D507" s="65">
+        <v>0.42509999999999998</v>
+      </c>
+    </row>
+    <row r="515" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C515" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="D515" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="E515" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="F515" s="66"/>
+      <c r="G515" s="66"/>
+    </row>
+    <row r="516" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C516" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="D516" s="69">
+        <v>4</v>
+      </c>
+      <c r="E516" s="68">
+        <v>0.4</v>
+      </c>
+      <c r="F516" s="66"/>
+      <c r="G516" s="66"/>
+    </row>
+    <row r="517" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C517" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="D517" s="69">
+        <v>4</v>
+      </c>
+      <c r="E517" s="68">
+        <v>0.4</v>
+      </c>
+      <c r="F517" s="66"/>
+      <c r="G517" s="66"/>
+    </row>
+    <row r="518" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C518" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="D518" s="69">
+        <v>2</v>
+      </c>
+      <c r="E518" s="68">
+        <v>0.2</v>
+      </c>
+      <c r="F518" s="66"/>
+      <c r="G518" s="66"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/phpdocx/template/MasterExcelFile.xlsx
+++ b/phpdocx/template/MasterExcelFile.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SES\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350" tabRatio="869"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17420" tabRatio="869"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="15" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -244,14 +244,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="7">
-    <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="171" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="172" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="6">
+    <numFmt numFmtId="164" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    <numFmt numFmtId="167" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -387,28 +386,28 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -416,23 +415,23 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -469,180 +468,180 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,9 +652,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -665,7 +664,7 @@
     <xf numFmtId="2" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -686,7 +685,7 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -703,11 +702,11 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -751,7 +750,7 @@
     <xf numFmtId="1" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -766,7 +765,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -779,7 +778,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
@@ -793,7 +792,7 @@
   </cellStyles>
   <dxfs count="10">
     <dxf>
-      <numFmt numFmtId="167" formatCode="[$-14009]d\.m\.yy;@"/>
+      <numFmt numFmtId="170" formatCode="[$-14009]d\.m\.yy;@"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -856,7 +855,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+      <numFmt numFmtId="167" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1024,10 +1023,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.7777777777777779E-3"/>
-          <c:y val="1.4915091908997865E-2"/>
-          <c:w val="0.99722237595699903"/>
-          <c:h val="0.72660860903848279"/>
+          <c:x val="0.00277777777777778"/>
+          <c:y val="0.0149150919089979"/>
+          <c:w val="0.997222375956999"/>
+          <c:h val="0.726608609038483"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1097,16 +1096,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1177,16 +1176,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1207,7 +1206,7 @@
                   <c:v>20.64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.739999999999998</c:v>
+                  <c:v>17.74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1262,16 +1261,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1283,7 +1282,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5.8599999999999994</c:v>
+                  <c:v>5.859999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4.91</c:v>
@@ -1292,7 +1291,7 @@
                   <c:v>4.620000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.4500000000000028</c:v>
+                  <c:v>5.450000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1356,16 +1355,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1380,13 +1379,13 @@
                   <c:v>13.13000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.410000000000011</c:v>
+                  <c:v>12.41000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>12.72999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.469999999999999</c:v>
+                  <c:v>13.47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1402,11 +1401,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="286240608"/>
-        <c:axId val="287058936"/>
+        <c:axId val="2115014488"/>
+        <c:axId val="2115017800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="286240608"/>
+        <c:axId val="2115014488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1416,7 +1415,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="287058936"/>
+        <c:crossAx val="2115017800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1424,10 +1423,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="287058936"/>
+        <c:axId val="2115017800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
+          <c:max val="100.0"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
@@ -1435,7 +1434,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="286240608"/>
+        <c:crossAx val="2115014488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1446,10 +1445,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0"/>
-          <c:y val="0.84682662322280511"/>
-          <c:w val="1"/>
-          <c:h val="0.10241032185633876"/>
+          <c:x val="0.0"/>
+          <c:y val="0.846826623222805"/>
+          <c:w val="1.0"/>
+          <c:h val="0.102410321856339"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1504,10 +1503,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14445603674540683"/>
-          <c:y val="0.18796277738010023"/>
-          <c:w val="0.82498840769903758"/>
-          <c:h val="0.54317871629682657"/>
+          <c:x val="0.144456036745407"/>
+          <c:y val="0.1879627773801"/>
+          <c:w val="0.824988407699038"/>
+          <c:h val="0.543178716296827"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1733,13 +1732,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.5900000000000003E-2</c:v>
+                  <c:v>0.0459</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5999999999999999E-2</c:v>
+                  <c:v>0.046</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12039999999999999</c:v>
+                  <c:v>0.1204</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1848,13 +1847,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.5000000000000003E-2</c:v>
+                  <c:v>0.035</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.75E-2</c:v>
+                  <c:v>0.0275</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>0.015</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1870,11 +1869,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="288002184"/>
-        <c:axId val="288002968"/>
+        <c:axId val="2130844456"/>
+        <c:axId val="2131022472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="288002184"/>
+        <c:axId val="2130844456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1914,7 +1913,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288002968"/>
+        <c:crossAx val="2131022472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1922,7 +1921,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="288002968"/>
+        <c:axId val="2131022472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1973,8 +1972,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="2.5999807408834015E-3"/>
-              <c:y val="0.19129945120496306"/>
+              <c:x val="0.0025999807408834"/>
+              <c:y val="0.191299451204963"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1985,23 +1984,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
@@ -2033,10 +2015,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288002184"/>
+        <c:crossAx val="2130844456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="5.000000000000001E-2"/>
+        <c:majorUnit val="0.05"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2052,10 +2034,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0"/>
-          <c:y val="0.82641994750656156"/>
-          <c:w val="1"/>
-          <c:h val="7.8125546806649182E-2"/>
+          <c:x val="0.0"/>
+          <c:y val="0.826419947506562"/>
+          <c:w val="1.0"/>
+          <c:h val="0.0781255468066492"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2118,7 +2100,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -2144,10 +2126,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10634903037761877"/>
-          <c:y val="4.9490026830164825E-2"/>
-          <c:w val="0.76538810796734513"/>
-          <c:h val="0.69262232979848626"/>
+          <c:x val="0.106349030377619"/>
+          <c:y val="0.0494900268301648"/>
+          <c:w val="0.765388107967345"/>
+          <c:h val="0.692622329798486"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2204,19 +2186,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2231,8 +2213,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="288004928"/>
-        <c:axId val="289435864"/>
+        <c:axId val="2131333080"/>
+        <c:axId val="2131336296"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2294,16 +2276,16 @@
                   <c:v>111.3821138211382</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>116.26016260162602</c:v>
+                  <c:v>116.260162601626</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>122.76422764227641</c:v>
+                  <c:v>122.7642276422764</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>119.51219512195121</c:v>
+                  <c:v>119.5121951219512</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>123.57723577235772</c:v>
+                  <c:v>123.5772357723577</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2364,19 +2346,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73.205080756887725</c:v>
+                  <c:v>73.20508075688772</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58.74010519681994</c:v>
+                  <c:v>58.74010519681993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49.534878122122052</c:v>
+                  <c:v>49.53487812212205</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43.096908110525554</c:v>
+                  <c:v>43.09690811052555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2393,11 +2375,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="289437432"/>
-        <c:axId val="289431552"/>
+        <c:axId val="2131345576"/>
+        <c:axId val="2131342536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="288004928"/>
+        <c:axId val="2131333080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2425,18 +2407,18 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="289435864"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="2131336296"/>
+        <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="0"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="289435864"/>
+        <c:axId val="2131336296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="10"/>
+          <c:max val="10.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2470,8 +2452,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0"/>
-              <c:y val="0.14476936810335991"/>
+              <c:x val="0.0"/>
+              <c:y val="0.14476936810336"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2498,12 +2480,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288004928"/>
+        <c:crossAx val="2131333080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="289431552"/>
+        <c:axId val="2131342536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2513,12 +2495,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="289437432"/>
+        <c:crossAx val="2131345576"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="289437432"/>
+        <c:axId val="2131345576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2528,7 +2510,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="289431552"/>
+        <c:crossAx val="2131342536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2550,10 +2532,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0"/>
-          <c:y val="0.7865500210911136"/>
-          <c:w val="1"/>
-          <c:h val="0.17996783605174352"/>
+          <c:x val="0.0"/>
+          <c:y val="0.786550021091113"/>
+          <c:w val="1.0"/>
+          <c:h val="0.179967836051744"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2617,10 +2599,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13708910976291899"/>
-          <c:y val="0.17478642092815322"/>
-          <c:w val="0.85133565621370633"/>
-          <c:h val="0.5132260390528105"/>
+          <c:x val="0.137089109762919"/>
+          <c:y val="0.174786420928153"/>
+          <c:w val="0.851335656213706"/>
+          <c:h val="0.51322603905281"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2734,7 +2716,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8.1999999999999993</c:v>
+                  <c:v>8.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.2</c:v>
@@ -2755,11 +2737,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="289432728"/>
-        <c:axId val="289438608"/>
+        <c:axId val="2131379656"/>
+        <c:axId val="2131382664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="289432728"/>
+        <c:axId val="2131379656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2779,7 +2761,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="289438608"/>
+        <c:crossAx val="2131382664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2787,7 +2769,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="289438608"/>
+        <c:axId val="2131382664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2807,7 +2789,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="289432728"/>
+        <c:crossAx val="2131379656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2852,10 +2834,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.3623693379791128E-2"/>
-          <c:y val="0.15280839895013146"/>
-          <c:w val="0.85133565621370633"/>
-          <c:h val="0.54831399364553113"/>
+          <c:x val="0.0836236933797911"/>
+          <c:y val="0.152808398950131"/>
+          <c:w val="0.851335656213706"/>
+          <c:h val="0.548313993645531"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2960,7 +2942,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>8.1999999999999993</c:v>
+                  <c:v>8.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.2</c:v>
@@ -2969,10 +2951,10 @@
                   <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2987,11 +2969,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="289437040"/>
-        <c:axId val="289433120"/>
+        <c:axId val="2131423048"/>
+        <c:axId val="2131426056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="289437040"/>
+        <c:axId val="2131423048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3011,7 +2993,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="289433120"/>
+        <c:crossAx val="2131426056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3019,7 +3001,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="289433120"/>
+        <c:axId val="2131426056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3039,7 +3021,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="289437040"/>
+        <c:crossAx val="2131423048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3106,8 +3088,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.26280944356675467"/>
-          <c:y val="2.855535213302297E-2"/>
+          <c:x val="0.262809443566755"/>
+          <c:y val="0.028555352133023"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3119,10 +3101,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13052443273073883"/>
-          <c:y val="0.23149734036124769"/>
-          <c:w val="0.80175592782402105"/>
-          <c:h val="0.6253571526941244"/>
+          <c:x val="0.130524432730739"/>
+          <c:y val="0.231497340361248"/>
+          <c:w val="0.801755927824021"/>
+          <c:h val="0.625357152694125"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -3163,44 +3145,6 @@
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:sysClr>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:sysClr val="window" lastClr="FFFFFF">
-                  <a:lumMod val="50000"/>
-                </a:sysClr>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="F79646">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="C0504D">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:srgbClr>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
@@ -3350,13 +3294,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3372,11 +3316,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="289437824"/>
-        <c:axId val="289433904"/>
+        <c:axId val="2131489944"/>
+        <c:axId val="2131492952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="289437824"/>
+        <c:axId val="2131489944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3396,7 +3340,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="289433904"/>
+        <c:crossAx val="2131492952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3404,7 +3348,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="289433904"/>
+        <c:axId val="2131492952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3424,7 +3368,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="289437824"/>
+        <c:crossAx val="2131489944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3493,8 +3437,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35490785489925541"/>
-          <c:y val="1.3073959663235312E-3"/>
+          <c:x val="0.354907854899255"/>
+          <c:y val="0.00130739596632353"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3505,23 +3449,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3530,10 +3457,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14142812643921979"/>
-          <c:y val="6.9065437874418559E-2"/>
-          <c:w val="0.80753805591705252"/>
-          <c:h val="0.71046508253948415"/>
+          <c:x val="0.14142812643922"/>
+          <c:y val="0.0690654378744186"/>
+          <c:w val="0.807538055917052"/>
+          <c:h val="0.710465082539484"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -3754,7 +3681,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>0.56</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.44</c:v>
@@ -3773,11 +3700,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="289438216"/>
-        <c:axId val="289436256"/>
+        <c:axId val="2131535800"/>
+        <c:axId val="2131539240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="289438216"/>
+        <c:axId val="2131535800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3817,7 +3744,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="289436256"/>
+        <c:crossAx val="2131539240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3825,7 +3752,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="289436256"/>
+        <c:axId val="2131539240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3864,7 +3791,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="289438216"/>
+        <c:crossAx val="2131535800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3882,10 +3809,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.24836020513918111"/>
-          <c:y val="0.86748265851920126"/>
-          <c:w val="0.63271780113016374"/>
-          <c:h val="0.11958739185943737"/>
+          <c:x val="0.248360205139181"/>
+          <c:y val="0.867482658519201"/>
+          <c:w val="0.632717801130164"/>
+          <c:h val="0.119587391859437"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3971,10 +3898,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13708910976291899"/>
-          <c:y val="0.17478642092815322"/>
-          <c:w val="0.85133565621370588"/>
-          <c:h val="0.58648611231288406"/>
+          <c:x val="0.137089109762919"/>
+          <c:y val="0.174786420928153"/>
+          <c:w val="0.851335656213706"/>
+          <c:h val="0.586486112312884"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -4086,16 +4013,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.27529999999999999</c:v>
+                  <c:v>0.2753</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35139999999999999</c:v>
+                  <c:v>0.3514</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35349999999999998</c:v>
+                  <c:v>0.3535</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.42509999999999998</c:v>
+                  <c:v>0.4251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4110,11 +4037,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="332114936"/>
-        <c:axId val="332118856"/>
+        <c:axId val="2131576712"/>
+        <c:axId val="2131579784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="332114936"/>
+        <c:axId val="2131576712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4134,7 +4061,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332118856"/>
+        <c:crossAx val="2131579784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4142,7 +4069,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="332118856"/>
+        <c:axId val="2131579784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4162,7 +4089,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332114936"/>
+        <c:crossAx val="2131576712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4207,10 +4134,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13708910976291899"/>
-          <c:y val="0.17478642092815322"/>
-          <c:w val="0.85133565621370588"/>
-          <c:h val="0.58648611231288406"/>
+          <c:x val="0.137089109762919"/>
+          <c:y val="0.174786420928153"/>
+          <c:w val="0.851335656213706"/>
+          <c:h val="0.586486112312884"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -4322,16 +4249,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.27529999999999999</c:v>
+                  <c:v>0.2753</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35139999999999999</c:v>
+                  <c:v>0.3514</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35349999999999998</c:v>
+                  <c:v>0.3535</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.42509999999999998</c:v>
+                  <c:v>0.4251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4346,11 +4273,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="411204608"/>
-        <c:axId val="288553112"/>
+        <c:axId val="2131619896"/>
+        <c:axId val="2131622968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="411204608"/>
+        <c:axId val="2131619896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4370,7 +4297,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288553112"/>
+        <c:crossAx val="2131622968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4378,7 +4305,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="288553112"/>
+        <c:axId val="2131622968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4398,7 +4325,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="411204608"/>
+        <c:crossAx val="2131619896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4443,10 +4370,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1401978782921591"/>
-          <c:y val="6.7712909339716562E-2"/>
-          <c:w val="0.67105686789151364"/>
-          <c:h val="0.64664125129155237"/>
+          <c:x val="0.140197878292159"/>
+          <c:y val="0.0677129093397166"/>
+          <c:w val="0.671056867891514"/>
+          <c:h val="0.646641251291553"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -4483,8 +4410,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.4401821803252382E-3"/>
-                  <c:y val="2.4112661188156127E-2"/>
+                  <c:x val="-0.00444018218032524"/>
+                  <c:y val="0.0241126611881561"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -4559,13 +4486,13 @@
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4580,8 +4507,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="411203432"/>
-        <c:axId val="411196376"/>
+        <c:axId val="2131675688"/>
+        <c:axId val="2131678760"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4658,11 +4585,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="411203824"/>
-        <c:axId val="411200688"/>
+        <c:axId val="2131690536"/>
+        <c:axId val="2131684696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="411203432"/>
+        <c:axId val="2131675688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4682,7 +4609,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="411196376"/>
+        <c:crossAx val="2131678760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4690,7 +4617,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="411196376"/>
+        <c:axId val="2131678760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4741,12 +4668,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="411203432"/>
+        <c:crossAx val="2131675688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="411200688"/>
+        <c:axId val="2131684696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4790,12 +4717,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="411203824"/>
+        <c:crossAx val="2131690536"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="411203824"/>
+        <c:axId val="2131690536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4805,7 +4732,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="411200688"/>
+        <c:crossAx val="2131684696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4819,10 +4746,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.6718495631084089E-3"/>
-          <c:y val="0.80054773696274395"/>
-          <c:w val="0.99732811585515846"/>
-          <c:h val="0.13943349841450822"/>
+          <c:x val="0.00267184956310841"/>
+          <c:y val="0.800547736962744"/>
+          <c:w val="0.997328115855158"/>
+          <c:h val="0.139433498414508"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4876,10 +4803,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.20919817190683335"/>
-          <c:y val="2.9962546816479401E-2"/>
-          <c:w val="0.79080182809316668"/>
-          <c:h val="0.64584926884139471"/>
+          <c:x val="0.209198171906833"/>
+          <c:y val="0.0299625468164794"/>
+          <c:w val="0.790801828093167"/>
+          <c:h val="0.645849268841395"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -4986,7 +4913,7 @@
             <c:numRef>
               <c:f>Sheet1!$C$50:$D$50</c:f>
               <c:numCache>
-                <c:formatCode>"₹"\ #,##0.00</c:formatCode>
+                <c:formatCode>"$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1.01</c:v>
@@ -5100,10 +5027,10 @@
             <c:numRef>
               <c:f>Sheet1!$C$51:$D$51</c:f>
               <c:numCache>
-                <c:formatCode>"₹"\ #,##0.00</c:formatCode>
+                <c:formatCode>"$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.4350000000000001</c:v>
+                  <c:v>1.435</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.02</c:v>
@@ -5122,11 +5049,11 @@
         </c:dLbls>
         <c:gapWidth val="90"/>
         <c:overlap val="-27"/>
-        <c:axId val="287533808"/>
-        <c:axId val="288333672"/>
+        <c:axId val="2115028408"/>
+        <c:axId val="2115031864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="287533808"/>
+        <c:axId val="2115028408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5163,7 +5090,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288333672"/>
+        <c:crossAx val="2115031864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5171,7 +5098,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="288333672"/>
+        <c:axId val="2115031864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5216,26 +5143,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
@@ -5270,7 +5177,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="287533808"/>
+        <c:crossAx val="2115028408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5288,10 +5195,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1159167104111986"/>
-          <c:y val="0.79753250843644563"/>
-          <c:w val="0.76816611256926215"/>
-          <c:h val="0.12857232845894265"/>
+          <c:x val="0.115916710411199"/>
+          <c:y val="0.797532508436445"/>
+          <c:w val="0.768166112569262"/>
+          <c:h val="0.128572328458943"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -5351,7 +5258,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -5377,10 +5284,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14978028022232515"/>
-          <c:y val="7.1330167698503338E-2"/>
-          <c:w val="0.73256000060511173"/>
-          <c:h val="0.59235155605549294"/>
+          <c:x val="0.149780280222325"/>
+          <c:y val="0.0713301676985033"/>
+          <c:w val="0.732560000605112"/>
+          <c:h val="0.592351556055493"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -5422,8 +5329,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.9755506105215141E-2"/>
-                  <c:y val="-9.0254747568318736E-2"/>
+                  <c:x val="-0.0897555061052152"/>
+                  <c:y val="-0.0902547475683187"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5443,8 +5350,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.0769998858838298E-2"/>
-                  <c:y val="-8.2411610313416775E-2"/>
+                  <c:x val="-0.0607699988588383"/>
+                  <c:y val="-0.0824116103134167"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5464,8 +5371,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="8.0705808513065642E-3"/>
-                  <c:y val="1.9549174000308783E-2"/>
+                  <c:x val="0.00807058085130657"/>
+                  <c:y val="0.0195491740003088"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5485,8 +5392,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.10062507132260641"/>
-                  <c:y val="-9.0254747568318666E-2"/>
+                  <c:x val="-0.100625071322606"/>
+                  <c:y val="-0.0902547475683187"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5502,7 +5409,7 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
-            <c:numFmt formatCode="&quot;₹&quot;\ #,##0.00" sourceLinked="0"/>
+            <c:numFmt formatCode="&quot;$&quot;\ #,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln w="25400">
@@ -5541,19 +5448,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2015</c:v>
+                  <c:v>2015.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5568,16 +5475,16 @@
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4E-2</c:v>
+                  <c:v>0.014</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>0.015</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6500000000000001E-2</c:v>
+                  <c:v>0.0165</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.35E-2</c:v>
+                  <c:v>0.0135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5594,8 +5501,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="288333280"/>
-        <c:axId val="288334456"/>
+        <c:axId val="2130900296"/>
+        <c:axId val="2130959208"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5640,8 +5547,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.2165069040283001E-2"/>
-                  <c:y val="6.194102207812259E-2"/>
+                  <c:x val="-0.092165069040283"/>
+                  <c:y val="0.0619410220781226"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5661,8 +5568,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.975550610521511E-2"/>
-                  <c:y val="8.547043384282843E-2"/>
+                  <c:x val="-0.0397555061052151"/>
+                  <c:y val="0.0854704338428284"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5717,19 +5624,19 @@
               <c:formatCode>General</c:formatCode>
               <c:ptCount val="5"/>
               <c:pt idx="0">
-                <c:v>2011</c:v>
+                <c:v>2011.0</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>2012</c:v>
+                <c:v>2012.0</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>2013</c:v>
+                <c:v>2013.0</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>2014</c:v>
+                <c:v>2014.0</c:v>
               </c:pt>
               <c:pt idx="4">
-                <c:v>2015</c:v>
+                <c:v>2015.0</c:v>
               </c:pt>
             </c:numLit>
           </c:cat>
@@ -5740,16 +5647,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>265.85497835497836</c:v>
+                  <c:v>265.8549783549784</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>470.77922077922079</c:v>
+                  <c:v>470.7792207792208</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>790.63852813852816</c:v>
+                  <c:v>790.6385281385282</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1293.2900432900433</c:v>
+                  <c:v>1293.290043290043</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1737.012987012987</c:v>
@@ -5769,11 +5676,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="288332888"/>
-        <c:axId val="288331320"/>
+        <c:axId val="2130786184"/>
+        <c:axId val="2130849720"/>
       </c:lineChart>
       <c:valAx>
-        <c:axId val="288334456"/>
+        <c:axId val="2130959208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5804,8 +5711,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.94206008216364256"/>
-              <c:y val="4.8472440944881887E-2"/>
+              <c:x val="0.942060082163643"/>
+              <c:y val="0.0484724409448819"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -5824,12 +5731,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288333280"/>
+        <c:crossAx val="2130900296"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="288333280"/>
+        <c:axId val="2130900296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5849,7 +5756,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288334456"/>
+        <c:crossAx val="2130959208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5857,7 +5764,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="288331320"/>
+        <c:axId val="2130849720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5888,8 +5795,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="3.9546958804062551E-3"/>
-              <c:y val="0.13258669136946116"/>
+              <c:x val="0.00395469588040625"/>
+              <c:y val="0.132586691369461"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -5908,12 +5815,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288332888"/>
+        <c:crossAx val="2130786184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="288332888"/>
+        <c:axId val="2130786184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5923,7 +5830,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="288331320"/>
+        <c:crossAx val="2130849720"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5945,10 +5852,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0"/>
-          <c:y val="0.78019206422726572"/>
-          <c:w val="1"/>
-          <c:h val="0.2198079357727343"/>
+          <c:x val="0.0"/>
+          <c:y val="0.780192064227265"/>
+          <c:w val="1.0"/>
+          <c:h val="0.219807935772734"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -6011,10 +5918,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1401978782921591"/>
-          <c:y val="0.15832785464923679"/>
-          <c:w val="0.67105686789151364"/>
-          <c:h val="0.5560262976836633"/>
+          <c:x val="0.140197878292159"/>
+          <c:y val="0.158327854649237"/>
+          <c:w val="0.671056867891514"/>
+          <c:h val="0.556026297683663"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -6051,8 +5958,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.4401821803252382E-3"/>
-                  <c:y val="2.4112661188156127E-2"/>
+                  <c:x val="-0.00444018218032524"/>
+                  <c:y val="0.0241126611881561"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -6110,13 +6017,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6134,7 +6041,7 @@
                   <c:v>5.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6207,13 +6114,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6246,8 +6153,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="288331712"/>
-        <c:axId val="288332104"/>
+        <c:axId val="2130752904"/>
+        <c:axId val="2130756056"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6298,8 +6205,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11532271908365828"/>
-                  <c:y val="7.5397158788044483E-2"/>
+                  <c:x val="-0.115322719083658"/>
+                  <c:y val="0.0753971587880445"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -6319,8 +6226,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.2838615460294802E-2"/>
-                  <c:y val="6.3965479023171415E-2"/>
+                  <c:x val="-0.0928386154602948"/>
+                  <c:y val="0.0639654790231714"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -6340,8 +6247,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.7774344662613455E-2"/>
-                  <c:y val="-0.11156874621441551"/>
+                  <c:x val="-0.0577743446626135"/>
+                  <c:y val="-0.111568746214416"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -6396,13 +6303,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2014</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6414,13 +6321,13 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.19033296943231442</c:v>
+                  <c:v>0.190332969432314</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.20820015576323989</c:v>
+                  <c:v>0.20820015576324</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23923842195540312</c:v>
+                  <c:v>0.239238421955403</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6437,11 +6344,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="288004536"/>
-        <c:axId val="288332496"/>
+        <c:axId val="2130767032"/>
+        <c:axId val="2130761528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="288331712"/>
+        <c:axId val="2130752904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6461,7 +6368,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288332104"/>
+        <c:crossAx val="2130756056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6469,7 +6376,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="288332104"/>
+        <c:axId val="2130756056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6508,15 +6415,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288331712"/>
+        <c:crossAx val="2130752904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="288332496"/>
+        <c:axId val="2130761528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -6540,8 +6447,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.9425327199780591"/>
-              <c:y val="0.13007261592300942"/>
+              <c:x val="0.942532719978059"/>
+              <c:y val="0.130072615923009"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -6560,12 +6467,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288004536"/>
+        <c:crossAx val="2130767032"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="288004536"/>
+        <c:axId val="2130767032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6575,7 +6482,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="288332496"/>
+        <c:crossAx val="2130761528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6589,10 +6496,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.6718495631084089E-3"/>
-          <c:y val="0.80054773696274395"/>
-          <c:w val="0.99732811585515846"/>
-          <c:h val="0.13943349841450822"/>
+          <c:x val="0.00267184956310841"/>
+          <c:y val="0.800547736962744"/>
+          <c:w val="0.997328115855158"/>
+          <c:h val="0.139433498414508"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -6650,10 +6557,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1675349992459266"/>
-          <c:y val="0.1617748568830471"/>
-          <c:w val="0.77174142544076052"/>
-          <c:h val="0.56188874448946313"/>
+          <c:x val="0.167534999245927"/>
+          <c:y val="0.161774856883047"/>
+          <c:w val="0.771741425440761"/>
+          <c:h val="0.561888744489463"/>
         </c:manualLayout>
       </c:layout>
       <c:bubbleChart>
@@ -6714,8 +6621,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.13893337800860001"/>
-                  <c:y val="0"/>
+                  <c:x val="-0.1389333780086"/>
+                  <c:y val="0.0"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="0%" sourceLinked="0"/>
@@ -6752,7 +6659,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-0.196369762290352"/>
-                  <c:y val="0"/>
+                  <c:y val="0.0"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -6811,7 +6718,7 @@
                   <c:v>6.13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>4.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6823,13 +6730,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6841,13 +6748,13 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.23923842195540312</c:v>
+                  <c:v>0.239238421955403</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6864,14 +6771,14 @@
         </c:dLbls>
         <c:bubbleScale val="100"/>
         <c:showNegBubbles val="0"/>
-        <c:axId val="288002576"/>
-        <c:axId val="288001008"/>
+        <c:axId val="2132160456"/>
+        <c:axId val="2132166552"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="288002576"/>
+        <c:axId val="2132160456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -6923,15 +6830,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288001008"/>
+        <c:crossAx val="2132166552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="288001008"/>
+        <c:axId val="2132166552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6983,7 +6890,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288002576"/>
+        <c:crossAx val="2132160456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7035,10 +6942,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="1.9202769260355378E-2"/>
-          <c:y val="0.1343857258227337"/>
-          <c:w val="0.84671916010498682"/>
-          <c:h val="0.71265495659196465"/>
+          <c:x val="0.0192027692603554"/>
+          <c:y val="0.134385725822734"/>
+          <c:w val="0.846719160104987"/>
+          <c:h val="0.712654956591965"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -7070,8 +6977,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.1709633649932159E-2"/>
-                  <c:y val="0"/>
+                  <c:x val="-0.0217096336499322"/>
+                  <c:y val="0.0"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -7141,13 +7048,13 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-0.18387909319899243</c:v>
+                  <c:v>-0.183879093198992</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.2219893822321366</c:v>
+                  <c:v>-0.221989382232137</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7237,13 +7144,13 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.13433009618295721</c:v>
+                  <c:v>0.134330096182957</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.2942928887378846E-2</c:v>
+                  <c:v>0.0629429288873788</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16548772227748865</c:v>
+                  <c:v>0.165487722277489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7274,8 +7181,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.6282225237449134E-2"/>
-                  <c:y val="0"/>
+                  <c:x val="0.0162822252374491"/>
+                  <c:y val="0.0"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -7294,8 +7201,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.085481682496608E-2"/>
-                  <c:y val="0"/>
+                  <c:x val="0.0108548168249661"/>
+                  <c:y val="0.0"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -7314,8 +7221,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.1709633649932156E-2"/>
-                  <c:y val="0.10986306486970028"/>
+                  <c:x val="0.0217096336499322"/>
+                  <c:y val="0.1098630648697"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -7384,13 +7291,13 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.14779618929373006</c:v>
+                  <c:v>0.14779618929373</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7351505092876325E-2</c:v>
+                  <c:v>0.0373515050928763</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.224139732919733E-2</c:v>
+                  <c:v>0.0822413973291973</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7405,11 +7312,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="288000224"/>
-        <c:axId val="288007280"/>
+        <c:axId val="2132896744"/>
+        <c:axId val="2132899896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="288000224"/>
+        <c:axId val="2132896744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7429,7 +7336,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288007280"/>
+        <c:crossAx val="2132899896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7437,7 +7344,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="288007280"/>
+        <c:axId val="2132899896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7447,7 +7354,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="288000224"/>
+        <c:crossAx val="2132896744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7458,10 +7365,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.56094400211146789"/>
-          <c:y val="0.54927771047849783"/>
-          <c:w val="0.36456810217158608"/>
-          <c:h val="0.32452150211992731"/>
+          <c:x val="0.560944002111468"/>
+          <c:y val="0.549277710478498"/>
+          <c:w val="0.364568102171586"/>
+          <c:h val="0.324521502119927"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -7527,10 +7434,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.5186423614856366E-2"/>
-          <c:y val="0.12728480047778459"/>
-          <c:w val="0.85458526588285988"/>
-          <c:h val="0.6135418140097757"/>
+          <c:x val="0.0951864236148564"/>
+          <c:y val="0.127284800477785"/>
+          <c:w val="0.85458526588286"/>
+          <c:h val="0.613541814009776"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -7581,943 +7488,943 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="313"/>
                 <c:pt idx="0">
-                  <c:v>41003</c:v>
+                  <c:v>41003.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41008</c:v>
+                  <c:v>41008.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41009</c:v>
+                  <c:v>41009.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41010</c:v>
+                  <c:v>41010.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41011</c:v>
+                  <c:v>41011.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41012</c:v>
+                  <c:v>41012.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41015</c:v>
+                  <c:v>41015.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41016</c:v>
+                  <c:v>41016.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41017</c:v>
+                  <c:v>41017.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41018</c:v>
+                  <c:v>41018.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41019</c:v>
+                  <c:v>41019.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41022</c:v>
+                  <c:v>41022.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41023</c:v>
+                  <c:v>41023.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41024</c:v>
+                  <c:v>41024.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41025</c:v>
+                  <c:v>41025.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41026</c:v>
+                  <c:v>41026.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41027</c:v>
+                  <c:v>41027.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41029</c:v>
+                  <c:v>41029.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41031</c:v>
+                  <c:v>41031.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41032</c:v>
+                  <c:v>41032.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41033</c:v>
+                  <c:v>41033.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41036</c:v>
+                  <c:v>41036.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41037</c:v>
+                  <c:v>41037.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41038</c:v>
+                  <c:v>41038.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41039</c:v>
+                  <c:v>41039.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41040</c:v>
+                  <c:v>41040.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41043</c:v>
+                  <c:v>41043.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41044</c:v>
+                  <c:v>41044.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41045</c:v>
+                  <c:v>41045.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41046</c:v>
+                  <c:v>41046.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>41047</c:v>
+                  <c:v>41047.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>41050</c:v>
+                  <c:v>41050.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>41051</c:v>
+                  <c:v>41051.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>41052</c:v>
+                  <c:v>41052.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>41053</c:v>
+                  <c:v>41053.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>41054</c:v>
+                  <c:v>41054.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>41057</c:v>
+                  <c:v>41057.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41058</c:v>
+                  <c:v>41058.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41059</c:v>
+                  <c:v>41059.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41060</c:v>
+                  <c:v>41060.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41061</c:v>
+                  <c:v>41061.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41064</c:v>
+                  <c:v>41064.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>41065</c:v>
+                  <c:v>41065.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>41066</c:v>
+                  <c:v>41066.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>41067</c:v>
+                  <c:v>41067.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>41068</c:v>
+                  <c:v>41068.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>41071</c:v>
+                  <c:v>41071.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>41072</c:v>
+                  <c:v>41072.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>41073</c:v>
+                  <c:v>41073.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>41074</c:v>
+                  <c:v>41074.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>41075</c:v>
+                  <c:v>41075.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>41078</c:v>
+                  <c:v>41078.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>41079</c:v>
+                  <c:v>41079.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>41080</c:v>
+                  <c:v>41080.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>41081</c:v>
+                  <c:v>41081.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>41082</c:v>
+                  <c:v>41082.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>41085</c:v>
+                  <c:v>41085.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>41086</c:v>
+                  <c:v>41086.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>41087</c:v>
+                  <c:v>41087.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>41088</c:v>
+                  <c:v>41088.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>41089</c:v>
+                  <c:v>41089.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>41092</c:v>
+                  <c:v>41092.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>41093</c:v>
+                  <c:v>41093.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>41094</c:v>
+                  <c:v>41094.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>41095</c:v>
+                  <c:v>41095.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>41096</c:v>
+                  <c:v>41096.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>41099</c:v>
+                  <c:v>41099.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>41100</c:v>
+                  <c:v>41100.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>41101</c:v>
+                  <c:v>41101.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>41102</c:v>
+                  <c:v>41102.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>41103</c:v>
+                  <c:v>41103.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>41106</c:v>
+                  <c:v>41106.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>41107</c:v>
+                  <c:v>41107.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>41108</c:v>
+                  <c:v>41108.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>41109</c:v>
+                  <c:v>41109.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>41110</c:v>
+                  <c:v>41110.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>41113</c:v>
+                  <c:v>41113.0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>41114</c:v>
+                  <c:v>41114.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>41115</c:v>
+                  <c:v>41115.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>41116</c:v>
+                  <c:v>41116.0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>41117</c:v>
+                  <c:v>41117.0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>41120</c:v>
+                  <c:v>41120.0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>41121</c:v>
+                  <c:v>41121.0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>41122</c:v>
+                  <c:v>41122.0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>41123</c:v>
+                  <c:v>41123.0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>41124</c:v>
+                  <c:v>41124.0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>41127</c:v>
+                  <c:v>41127.0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>41128</c:v>
+                  <c:v>41128.0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>41129</c:v>
+                  <c:v>41129.0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>41130</c:v>
+                  <c:v>41130.0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>41131</c:v>
+                  <c:v>41131.0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>41134</c:v>
+                  <c:v>41134.0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>41135</c:v>
+                  <c:v>41135.0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>41137</c:v>
+                  <c:v>41137.0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>41138</c:v>
+                  <c:v>41138.0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>41142</c:v>
+                  <c:v>41142.0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>41143</c:v>
+                  <c:v>41143.0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>41144</c:v>
+                  <c:v>41144.0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>41145</c:v>
+                  <c:v>41145.0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>41148</c:v>
+                  <c:v>41148.0</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>41149</c:v>
+                  <c:v>41149.0</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>41150</c:v>
+                  <c:v>41150.0</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>41151</c:v>
+                  <c:v>41151.0</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>41152</c:v>
+                  <c:v>41152.0</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>41155</c:v>
+                  <c:v>41155.0</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>41156</c:v>
+                  <c:v>41156.0</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>41157</c:v>
+                  <c:v>41157.0</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>41158</c:v>
+                  <c:v>41158.0</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>41159</c:v>
+                  <c:v>41159.0</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>41160</c:v>
+                  <c:v>41160.0</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>41162</c:v>
+                  <c:v>41162.0</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>41163</c:v>
+                  <c:v>41163.0</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>41164</c:v>
+                  <c:v>41164.0</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>41165</c:v>
+                  <c:v>41165.0</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>41166</c:v>
+                  <c:v>41166.0</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>41169</c:v>
+                  <c:v>41169.0</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>41170</c:v>
+                  <c:v>41170.0</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>41172</c:v>
+                  <c:v>41172.0</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>41173</c:v>
+                  <c:v>41173.0</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>41176</c:v>
+                  <c:v>41176.0</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>41177</c:v>
+                  <c:v>41177.0</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>41178</c:v>
+                  <c:v>41178.0</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>41179</c:v>
+                  <c:v>41179.0</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>41180</c:v>
+                  <c:v>41180.0</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>41183</c:v>
+                  <c:v>41183.0</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>41185</c:v>
+                  <c:v>41185.0</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>41186</c:v>
+                  <c:v>41186.0</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>41187</c:v>
+                  <c:v>41187.0</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>41190</c:v>
+                  <c:v>41190.0</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>41191</c:v>
+                  <c:v>41191.0</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>41192</c:v>
+                  <c:v>41192.0</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>41193</c:v>
+                  <c:v>41193.0</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>41194</c:v>
+                  <c:v>41194.0</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>41197</c:v>
+                  <c:v>41197.0</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>41198</c:v>
+                  <c:v>41198.0</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>41199</c:v>
+                  <c:v>41199.0</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>41200</c:v>
+                  <c:v>41200.0</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>41201</c:v>
+                  <c:v>41201.0</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>41204</c:v>
+                  <c:v>41204.0</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>41205</c:v>
+                  <c:v>41205.0</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>41207</c:v>
+                  <c:v>41207.0</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>41208</c:v>
+                  <c:v>41208.0</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>41211</c:v>
+                  <c:v>41211.0</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>41212</c:v>
+                  <c:v>41212.0</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>41213</c:v>
+                  <c:v>41213.0</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>41214</c:v>
+                  <c:v>41214.0</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>41215</c:v>
+                  <c:v>41215.0</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>41218</c:v>
+                  <c:v>41218.0</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>41219</c:v>
+                  <c:v>41219.0</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>41220</c:v>
+                  <c:v>41220.0</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>41221</c:v>
+                  <c:v>41221.0</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>41222</c:v>
+                  <c:v>41222.0</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>41225</c:v>
+                  <c:v>41225.0</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>41226</c:v>
+                  <c:v>41226.0</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>41228</c:v>
+                  <c:v>41228.0</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>41229</c:v>
+                  <c:v>41229.0</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>41232</c:v>
+                  <c:v>41232.0</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>41233</c:v>
+                  <c:v>41233.0</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>41234</c:v>
+                  <c:v>41234.0</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>41235</c:v>
+                  <c:v>41235.0</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>41236</c:v>
+                  <c:v>41236.0</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>41239</c:v>
+                  <c:v>41239.0</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>41240</c:v>
+                  <c:v>41240.0</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>41242</c:v>
+                  <c:v>41242.0</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>41243</c:v>
+                  <c:v>41243.0</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>41246</c:v>
+                  <c:v>41246.0</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>41247</c:v>
+                  <c:v>41247.0</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>41248</c:v>
+                  <c:v>41248.0</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>41249</c:v>
+                  <c:v>41249.0</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>41250</c:v>
+                  <c:v>41250.0</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>41253</c:v>
+                  <c:v>41253.0</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>41254</c:v>
+                  <c:v>41254.0</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>41255</c:v>
+                  <c:v>41255.0</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>41256</c:v>
+                  <c:v>41256.0</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>41257</c:v>
+                  <c:v>41257.0</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>41260</c:v>
+                  <c:v>41260.0</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>41261</c:v>
+                  <c:v>41261.0</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>41262</c:v>
+                  <c:v>41262.0</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>41263</c:v>
+                  <c:v>41263.0</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>41264</c:v>
+                  <c:v>41264.0</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>41267</c:v>
+                  <c:v>41267.0</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>41269</c:v>
+                  <c:v>41269.0</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>41270</c:v>
+                  <c:v>41270.0</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>41271</c:v>
+                  <c:v>41271.0</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>41274</c:v>
+                  <c:v>41274.0</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>41275</c:v>
+                  <c:v>41275.0</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>41276</c:v>
+                  <c:v>41276.0</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>41277</c:v>
+                  <c:v>41277.0</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>41278</c:v>
+                  <c:v>41278.0</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>41281</c:v>
+                  <c:v>41281.0</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>41282</c:v>
+                  <c:v>41282.0</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>41283</c:v>
+                  <c:v>41283.0</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>41284</c:v>
+                  <c:v>41284.0</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>41285</c:v>
+                  <c:v>41285.0</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>41288</c:v>
+                  <c:v>41288.0</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>41289</c:v>
+                  <c:v>41289.0</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>41290</c:v>
+                  <c:v>41290.0</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>41291</c:v>
+                  <c:v>41291.0</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>41292</c:v>
+                  <c:v>41292.0</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>41295</c:v>
+                  <c:v>41295.0</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>41296</c:v>
+                  <c:v>41296.0</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>41297</c:v>
+                  <c:v>41297.0</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>41298</c:v>
+                  <c:v>41298.0</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>41299</c:v>
+                  <c:v>41299.0</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>41302</c:v>
+                  <c:v>41302.0</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>41303</c:v>
+                  <c:v>41303.0</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>41304</c:v>
+                  <c:v>41304.0</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>41305</c:v>
+                  <c:v>41305.0</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>41306</c:v>
+                  <c:v>41306.0</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>41309</c:v>
+                  <c:v>41309.0</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>41310</c:v>
+                  <c:v>41310.0</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>41311</c:v>
+                  <c:v>41311.0</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>41312</c:v>
+                  <c:v>41312.0</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>41313</c:v>
+                  <c:v>41313.0</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>41316</c:v>
+                  <c:v>41316.0</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>41317</c:v>
+                  <c:v>41317.0</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>41318</c:v>
+                  <c:v>41318.0</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>41319</c:v>
+                  <c:v>41319.0</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>41320</c:v>
+                  <c:v>41320.0</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>41323</c:v>
+                  <c:v>41323.0</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>41324</c:v>
+                  <c:v>41324.0</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>41325</c:v>
+                  <c:v>41325.0</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>41326</c:v>
+                  <c:v>41326.0</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>41327</c:v>
+                  <c:v>41327.0</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>41330</c:v>
+                  <c:v>41330.0</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>41331</c:v>
+                  <c:v>41331.0</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>41332</c:v>
+                  <c:v>41332.0</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>41333</c:v>
+                  <c:v>41333.0</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>41334</c:v>
+                  <c:v>41334.0</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>41337</c:v>
+                  <c:v>41337.0</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>41338</c:v>
+                  <c:v>41338.0</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>41339</c:v>
+                  <c:v>41339.0</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>41340</c:v>
+                  <c:v>41340.0</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>41341</c:v>
+                  <c:v>41341.0</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>41344</c:v>
+                  <c:v>41344.0</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>41345</c:v>
+                  <c:v>41345.0</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>41346</c:v>
+                  <c:v>41346.0</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>41347</c:v>
+                  <c:v>41347.0</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>41348</c:v>
+                  <c:v>41348.0</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>41351</c:v>
+                  <c:v>41351.0</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>41352</c:v>
+                  <c:v>41352.0</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>41353</c:v>
+                  <c:v>41353.0</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>41354</c:v>
+                  <c:v>41354.0</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>41355</c:v>
+                  <c:v>41355.0</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>41358</c:v>
+                  <c:v>41358.0</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>41359</c:v>
+                  <c:v>41359.0</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>41361</c:v>
+                  <c:v>41361.0</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>41365</c:v>
+                  <c:v>41365.0</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>41366</c:v>
+                  <c:v>41366.0</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>41367</c:v>
+                  <c:v>41367.0</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>41368</c:v>
+                  <c:v>41368.0</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>41369</c:v>
+                  <c:v>41369.0</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>41372</c:v>
+                  <c:v>41372.0</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>41373</c:v>
+                  <c:v>41373.0</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>41374</c:v>
+                  <c:v>41374.0</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>41375</c:v>
+                  <c:v>41375.0</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>41376</c:v>
+                  <c:v>41376.0</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>41379</c:v>
+                  <c:v>41379.0</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>41380</c:v>
+                  <c:v>41380.0</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>41381</c:v>
+                  <c:v>41381.0</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>41382</c:v>
+                  <c:v>41382.0</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>41386</c:v>
+                  <c:v>41386.0</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>41387</c:v>
+                  <c:v>41387.0</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>41389</c:v>
+                  <c:v>41389.0</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>41390</c:v>
+                  <c:v>41390.0</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>41393</c:v>
+                  <c:v>41393.0</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>41394</c:v>
+                  <c:v>41394.0</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>41396</c:v>
+                  <c:v>41396.0</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>41397</c:v>
+                  <c:v>41397.0</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>41400</c:v>
+                  <c:v>41400.0</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>41401</c:v>
+                  <c:v>41401.0</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>41402</c:v>
+                  <c:v>41402.0</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>41403</c:v>
+                  <c:v>41403.0</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>41404</c:v>
+                  <c:v>41404.0</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>41405</c:v>
+                  <c:v>41405.0</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>41407</c:v>
+                  <c:v>41407.0</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>41408</c:v>
+                  <c:v>41408.0</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>41409</c:v>
+                  <c:v>41409.0</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>41410</c:v>
+                  <c:v>41410.0</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>41411</c:v>
+                  <c:v>41411.0</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>41414</c:v>
+                  <c:v>41414.0</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>41415</c:v>
+                  <c:v>41415.0</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>41416</c:v>
+                  <c:v>41416.0</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>41417</c:v>
+                  <c:v>41417.0</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>41418</c:v>
+                  <c:v>41418.0</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>41421</c:v>
+                  <c:v>41421.0</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>41422</c:v>
+                  <c:v>41422.0</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>41423</c:v>
+                  <c:v>41423.0</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>41424</c:v>
+                  <c:v>41424.0</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>41425</c:v>
+                  <c:v>41425.0</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>41428</c:v>
+                  <c:v>41428.0</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>41429</c:v>
+                  <c:v>41429.0</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>41430</c:v>
+                  <c:v>41430.0</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>41431</c:v>
+                  <c:v>41431.0</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>41432</c:v>
+                  <c:v>41432.0</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>41435</c:v>
+                  <c:v>41435.0</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>41436</c:v>
+                  <c:v>41436.0</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>41437</c:v>
+                  <c:v>41437.0</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>41438</c:v>
+                  <c:v>41438.0</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>41439</c:v>
+                  <c:v>41439.0</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>41442</c:v>
+                  <c:v>41442.0</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>41443</c:v>
+                  <c:v>41443.0</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>41444</c:v>
+                  <c:v>41444.0</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>41445</c:v>
+                  <c:v>41445.0</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>41446</c:v>
+                  <c:v>41446.0</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>41449</c:v>
+                  <c:v>41449.0</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>41450</c:v>
+                  <c:v>41450.0</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>41451</c:v>
+                  <c:v>41451.0</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>41452</c:v>
+                  <c:v>41452.0</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>41453</c:v>
+                  <c:v>41453.0</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>41456</c:v>
+                  <c:v>41456.0</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>41457</c:v>
+                  <c:v>41457.0</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>41458</c:v>
+                  <c:v>41458.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8658,7 +8565,7 @@
                   <c:v>414.1</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>418</c:v>
+                  <c:v>418.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>418.55</c:v>
@@ -8703,7 +8610,7 @@
                   <c:v>445.85</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>445</c:v>
+                  <c:v>445.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>444.55</c:v>
@@ -8748,7 +8655,7 @@
                   <c:v>429.9</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>432</c:v>
+                  <c:v>432.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>426.75</c:v>
@@ -8850,13 +8757,13 @@
                   <c:v>400.95</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>401</c:v>
+                  <c:v>401.0</c:v>
                 </c:pt>
                 <c:pt idx="108">
                   <c:v>404.3</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>406</c:v>
+                  <c:v>406.0</c:v>
                 </c:pt>
                 <c:pt idx="110">
                   <c:v>403.25</c:v>
@@ -8865,7 +8772,7 @@
                   <c:v>404.25</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>407</c:v>
+                  <c:v>407.0</c:v>
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>406.2</c:v>
@@ -8991,7 +8898,7 @@
                   <c:v>470.15</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>462</c:v>
+                  <c:v>462.0</c:v>
                 </c:pt>
                 <c:pt idx="155">
                   <c:v>458.75</c:v>
@@ -9006,7 +8913,7 @@
                   <c:v>463.3</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>463</c:v>
+                  <c:v>463.0</c:v>
                 </c:pt>
                 <c:pt idx="160">
                   <c:v>461.9</c:v>
@@ -9018,7 +8925,7 @@
                   <c:v>461.35</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>472</c:v>
+                  <c:v>472.0</c:v>
                 </c:pt>
                 <c:pt idx="164">
                   <c:v>481.8</c:v>
@@ -9054,7 +8961,7 @@
                   <c:v>482.05</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>489</c:v>
+                  <c:v>489.0</c:v>
                 </c:pt>
                 <c:pt idx="176">
                   <c:v>497.35</c:v>
@@ -9066,43 +8973,43 @@
                   <c:v>521.85</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>517.54999999999995</c:v>
+                  <c:v>517.55</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>520.54999999999995</c:v>
+                  <c:v>520.55</c:v>
                 </c:pt>
                 <c:pt idx="181">
                   <c:v>524.1</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>535.20000000000005</c:v>
+                  <c:v>535.2</c:v>
                 </c:pt>
                 <c:pt idx="183">
                   <c:v>538.85</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>538.29999999999995</c:v>
+                  <c:v>538.3</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>540.29999999999995</c:v>
+                  <c:v>540.3</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>542.70000000000005</c:v>
+                  <c:v>542.7</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>537.70000000000005</c:v>
+                  <c:v>537.7</c:v>
                 </c:pt>
                 <c:pt idx="188">
                   <c:v>526.65</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>522.29999999999995</c:v>
+                  <c:v>522.3</c:v>
                 </c:pt>
                 <c:pt idx="190">
                   <c:v>520.6</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>524.04999999999995</c:v>
+                  <c:v>524.05</c:v>
                 </c:pt>
                 <c:pt idx="192">
                   <c:v>515.35</c:v>
@@ -9114,13 +9021,13 @@
                   <c:v>519.85</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>525</c:v>
+                  <c:v>525.0</c:v>
                 </c:pt>
                 <c:pt idx="196">
                   <c:v>516.4</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>512</c:v>
+                  <c:v>512.0</c:v>
                 </c:pt>
                 <c:pt idx="198">
                   <c:v>503.2</c:v>
@@ -9144,7 +9051,7 @@
                   <c:v>502.55</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>505</c:v>
+                  <c:v>505.0</c:v>
                 </c:pt>
                 <c:pt idx="206">
                   <c:v>508.8</c:v>
@@ -9165,16 +9072,16 @@
                   <c:v>512.9</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>517.20000000000005</c:v>
+                  <c:v>517.2</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>515.70000000000005</c:v>
+                  <c:v>515.7</c:v>
                 </c:pt>
                 <c:pt idx="214">
                   <c:v>515.5</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>514.95000000000005</c:v>
+                  <c:v>514.95</c:v>
                 </c:pt>
                 <c:pt idx="216">
                   <c:v>507.6</c:v>
@@ -9195,7 +9102,7 @@
                   <c:v>500.15</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>494</c:v>
+                  <c:v>494.0</c:v>
                 </c:pt>
                 <c:pt idx="223">
                   <c:v>495.7</c:v>
@@ -9222,19 +9129,19 @@
                   <c:v>490.25</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>496</c:v>
+                  <c:v>496.0</c:v>
                 </c:pt>
                 <c:pt idx="232">
                   <c:v>489.95</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>493</c:v>
+                  <c:v>493.0</c:v>
                 </c:pt>
                 <c:pt idx="234">
                   <c:v>496.1</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>493</c:v>
+                  <c:v>493.0</c:v>
                 </c:pt>
                 <c:pt idx="236">
                   <c:v>484.65</c:v>
@@ -9261,7 +9168,7 @@
                   <c:v>482.2</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>483</c:v>
+                  <c:v>483.0</c:v>
                 </c:pt>
                 <c:pt idx="245">
                   <c:v>488.25</c:v>
@@ -9288,7 +9195,7 @@
                   <c:v>449.9</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>444</c:v>
+                  <c:v>444.0</c:v>
                 </c:pt>
                 <c:pt idx="254">
                   <c:v>447.95</c:v>
@@ -9453,7 +9360,7 @@
                   <c:v>402.95</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>399</c:v>
+                  <c:v>399.0</c:v>
                 </c:pt>
                 <c:pt idx="309">
                   <c:v>409.25</c:v>
@@ -9480,16 +9387,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="288006496"/>
-        <c:axId val="287999832"/>
+        <c:axId val="2132936440"/>
+        <c:axId val="2132939480"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="288006496"/>
+        <c:axId val="2132936440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="41449"/>
-          <c:min val="41084"/>
+          <c:max val="41449.0"/>
+          <c:min val="41084.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -9507,19 +9415,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="287999832"/>
+        <c:crossAx val="2132939480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
-        <c:majorUnit val="2"/>
+        <c:majorUnit val="2.0"/>
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="287999832"/>
+        <c:axId val="2132939480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="300"/>
+          <c:min val="300.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -9551,7 +9459,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288006496"/>
+        <c:crossAx val="2132936440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9565,10 +9473,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0"/>
-          <c:y val="0.83138919012368961"/>
-          <c:w val="1"/>
-          <c:h val="7.3106648185830722E-2"/>
+          <c:x val="0.0"/>
+          <c:y val="0.83138919012369"/>
+          <c:w val="1.0"/>
+          <c:h val="0.0731066481858307"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -9634,10 +9542,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.19132750871894419"/>
-          <c:y val="0.1412575957188231"/>
-          <c:w val="0.76848984287922961"/>
-          <c:h val="0.56742792364962158"/>
+          <c:x val="0.191327508718944"/>
+          <c:y val="0.141257595718823"/>
+          <c:w val="0.76848984287923"/>
+          <c:h val="0.567427923649622"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -9716,13 +9624,13 @@
             <c:numRef>
               <c:f>Sheet1!$C$484:$C$485</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>37716</c:v>
+                  <c:v>37716.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47170.879999999997</c:v>
+                  <c:v>47170.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9798,13 +9706,13 @@
             <c:numRef>
               <c:f>Sheet1!$D$484:$D$485</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>62284</c:v>
+                  <c:v>62284.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52829.120000000003</c:v>
+                  <c:v>52829.12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9835,8 +9743,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="-2.7777777777777891E-2"/>
+                  <c:x val="0.0"/>
+                  <c:y val="-0.0277777777777779"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="ctr"/>
@@ -9906,13 +9814,13 @@
             <c:numRef>
               <c:f>Sheet1!$E$484:$E$485</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50000</c:v>
+                  <c:v>50000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9928,11 +9836,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="288005320"/>
-        <c:axId val="288004144"/>
+        <c:axId val="2133005672"/>
+        <c:axId val="2133008824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="288005320"/>
+        <c:axId val="2133005672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9952,7 +9860,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288004144"/>
+        <c:crossAx val="2133008824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9960,7 +9868,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="288004144"/>
+        <c:axId val="2133008824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9980,7 +9888,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288005320"/>
+        <c:crossAx val="2133005672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -9990,8 +9898,8 @@
               <c:manualLayout>
                 <c:xMode val="edge"/>
                 <c:yMode val="edge"/>
-                <c:x val="0"/>
-                <c:y val="0.22262904636920386"/>
+                <c:x val="0.0"/>
+                <c:y val="0.222629046369204"/>
               </c:manualLayout>
             </c:layout>
             <c:tx>
@@ -10033,10 +9941,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0"/>
-          <c:y val="0.80778782029678198"/>
-          <c:w val="1"/>
-          <c:h val="0.10505959128649774"/>
+          <c:x val="0.0"/>
+          <c:y val="0.807787820296782"/>
+          <c:w val="1.0"/>
+          <c:h val="0.105059591286498"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -10090,10 +9998,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18899680341513786"/>
-          <c:y val="0.13418130426004438"/>
-          <c:w val="0.57105017514833989"/>
-          <c:h val="0.66407192313630614"/>
+          <c:x val="0.188996803415138"/>
+          <c:y val="0.134181304260044"/>
+          <c:w val="0.57105017514834"/>
+          <c:h val="0.664071923136306"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -10189,7 +10097,7 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -10350,8 +10258,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.0375816993464052E-2"/>
-                  <c:y val="1.2060778727445393E-2"/>
+                  <c:x val="0.0103758169934641"/>
+                  <c:y val="0.0120607787274454"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -10370,8 +10278,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="1.9656019656019701E-2"/>
+                  <c:x val="0.0"/>
+                  <c:y val="0.0196560196560197"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="0%" sourceLinked="0"/>
@@ -10472,7 +10380,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
+          <c:showLeaderLines val="0"/>
         </c:dLbls>
         <c:firstSliceAng val="130"/>
         <c:holeSize val="50"/>
@@ -10484,10 +10392,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0"/>
-          <c:y val="0.80950630040023142"/>
-          <c:w val="1"/>
-          <c:h val="0.19049364829396326"/>
+          <c:x val="0.0"/>
+          <c:y val="0.809506300400231"/>
+          <c:w val="1.0"/>
+          <c:h val="0.190493648293963"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -10522,1635 +10430,6 @@
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15157,14 +13436,14 @@
           <a:noFill/>
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
             <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
@@ -15324,7 +13603,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -15359,7 +13638,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -18119,25 +16398,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="B3:S518"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="6.7265625" customWidth="1"/>
-    <col min="3" max="3" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="16" max="16" width="7.54296875" customWidth="1"/>
-    <col min="17" max="17" width="15.54296875" customWidth="1"/>
-    <col min="18" max="18" width="11.81640625" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="16" max="16" width="7.5" customWidth="1"/>
+    <col min="17" max="17" width="15.5" customWidth="1"/>
+    <col min="18" max="18" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6">
       <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
@@ -18146,7 +16427,7 @@
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6">
       <c r="B4" s="15"/>
       <c r="C4" s="1">
         <v>2015</v>
@@ -18161,7 +16442,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6">
       <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
@@ -18178,7 +16459,7 @@
         <v>63.34</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6">
       <c r="B6" s="14" t="s">
         <v>2</v>
       </c>
@@ -18195,7 +16476,7 @@
         <v>17.739999999999998</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6">
       <c r="B7" s="14" t="s">
         <v>3</v>
       </c>
@@ -18212,7 +16493,7 @@
         <v>5.4500000000000028</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6">
       <c r="B8" s="14" t="s">
         <v>4</v>
       </c>
@@ -18229,13 +16510,13 @@
         <v>13.469999999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6">
       <c r="B15" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="12"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6">
       <c r="B16" s="11" t="s">
         <v>6</v>
       </c>
@@ -18243,7 +16524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4">
       <c r="B17" s="11" t="s">
         <v>7</v>
       </c>
@@ -18251,7 +16532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4">
       <c r="B18" s="11" t="s">
         <v>8</v>
       </c>
@@ -18259,7 +16540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:4">
       <c r="B27" s="59"/>
       <c r="C27" s="59" t="s">
         <v>8</v>
@@ -18268,7 +16549,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:4">
       <c r="B28" s="59" t="s">
         <v>65</v>
       </c>
@@ -18279,7 +16560,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:4">
       <c r="B29" s="59" t="s">
         <v>66</v>
       </c>
@@ -18290,20 +16571,20 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:4">
       <c r="B30" s="57"/>
       <c r="C30" s="58"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:4">
       <c r="B31" s="57"/>
       <c r="C31" s="58"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:7">
       <c r="B36" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:7">
       <c r="B37" s="9" t="s">
         <v>14</v>
       </c>
@@ -18314,7 +16595,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:7">
       <c r="B38" s="6">
         <v>2011</v>
       </c>
@@ -18325,7 +16606,7 @@
         <v>265.85497835497836</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:7">
       <c r="B39" s="6">
         <v>2012</v>
       </c>
@@ -18336,7 +16617,7 @@
         <v>470.77922077922079</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:7">
       <c r="B40" s="6">
         <v>2013</v>
       </c>
@@ -18348,7 +16629,7 @@
       </c>
       <c r="G40" s="19"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:7">
       <c r="B41" s="6">
         <v>2014</v>
       </c>
@@ -18359,7 +16640,7 @@
         <v>1293.2900432900433</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:7">
       <c r="B42" s="5">
         <v>2015</v>
       </c>
@@ -18370,12 +16651,12 @@
         <v>1737.012987012987</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:7">
       <c r="B48" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:5">
       <c r="B49" s="4"/>
       <c r="C49" s="4" t="s">
         <v>11</v>
@@ -18384,7 +16665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:5">
       <c r="B50" s="4" t="s">
         <v>1</v>
       </c>
@@ -18395,7 +16676,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:5">
       <c r="B51" s="4" t="s">
         <v>9</v>
       </c>
@@ -18406,7 +16687,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:5">
       <c r="B59" s="22"/>
       <c r="C59" s="23" t="s">
         <v>17</v>
@@ -18418,7 +16699,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:5">
       <c r="B60" s="23">
         <v>2012</v>
       </c>
@@ -18432,7 +16713,7 @@
         <v>0.19033296943231442</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:5">
       <c r="B61" s="23">
         <v>2013</v>
       </c>
@@ -18446,7 +16727,7 @@
         <v>0.20820015576323989</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:5">
       <c r="B62" s="23">
         <v>2014</v>
       </c>
@@ -18460,7 +16741,7 @@
         <v>0.23923842195540312</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:4">
       <c r="B71" s="23" t="s">
         <v>20</v>
       </c>
@@ -18471,7 +16752,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:4">
       <c r="B72" s="24">
         <v>6</v>
       </c>
@@ -18482,7 +16763,7 @@
         <v>0.23923842195540312</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:4">
       <c r="B73" s="24" t="s">
         <v>23</v>
       </c>
@@ -18493,7 +16774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:4">
       <c r="B74" s="24" t="s">
         <v>23</v>
       </c>
@@ -18504,7 +16785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:18">
       <c r="B82" s="40"/>
       <c r="C82" s="41">
         <v>2015</v>
@@ -18522,7 +16803,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="83" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:18">
       <c r="B83" s="42" t="s">
         <v>41</v>
       </c>
@@ -18544,7 +16825,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="84" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:18">
       <c r="B84" s="42" t="s">
         <v>42</v>
       </c>
@@ -18566,7 +16847,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="85" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:18">
       <c r="B85" s="42" t="s">
         <v>43</v>
       </c>
@@ -18588,8 +16869,8 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="95" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="96" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:18" ht="15" thickBot="1"/>
+    <row r="96" spans="2:18">
       <c r="B96" s="29"/>
       <c r="C96" s="30" t="s">
         <v>46</v>
@@ -18601,7 +16882,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="97" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:19">
       <c r="B97" s="32" t="s">
         <v>47</v>
       </c>
@@ -18615,7 +16896,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="98" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:19">
       <c r="B98" s="32" t="s">
         <v>48</v>
       </c>
@@ -18629,7 +16910,7 @@
         <v>0.12039999999999999</v>
       </c>
     </row>
-    <row r="99" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:19" ht="15" thickBot="1">
       <c r="B99" s="34" t="s">
         <v>49</v>
       </c>
@@ -18643,8 +16924,8 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="108" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="109" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:19" ht="15" thickBot="1"/>
+    <row r="109" spans="2:19">
       <c r="B109" s="29"/>
       <c r="C109" s="30" t="s">
         <v>50</v>
@@ -18666,7 +16947,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:19">
       <c r="B110" s="32" t="s">
         <v>57</v>
       </c>
@@ -18696,7 +16977,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:19">
       <c r="B111" s="32" t="s">
         <v>56</v>
       </c>
@@ -18726,7 +17007,7 @@
         <v>73.205080756887725</v>
       </c>
     </row>
-    <row r="112" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:19">
       <c r="B112" s="32" t="s">
         <v>55</v>
       </c>
@@ -18756,7 +17037,7 @@
         <v>58.74010519681994</v>
       </c>
     </row>
-    <row r="113" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:19">
       <c r="B113" s="32" t="s">
         <v>54</v>
       </c>
@@ -18786,7 +17067,7 @@
         <v>49.534878122122052</v>
       </c>
     </row>
-    <row r="114" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="2:19" ht="15" thickBot="1">
       <c r="B114" s="32" t="s">
         <v>53</v>
       </c>
@@ -18816,7 +17097,7 @@
         <v>43.096908110525554</v>
       </c>
     </row>
-    <row r="115" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="2:19" ht="15" thickBot="1">
       <c r="B115" s="34" t="s">
         <v>58</v>
       </c>
@@ -18826,7 +17107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:19">
       <c r="C122" s="48" t="s">
         <v>34</v>
       </c>
@@ -18834,7 +17115,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="123" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:19">
       <c r="C123" s="48" t="s">
         <v>59</v>
       </c>
@@ -18842,7 +17123,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="124" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:19">
       <c r="C124" s="48" t="s">
         <v>60</v>
       </c>
@@ -18850,7 +17131,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="125" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:19">
       <c r="C125" s="48" t="s">
         <v>61</v>
       </c>
@@ -18858,7 +17139,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="3:4">
       <c r="C133" s="51" t="s">
         <v>34</v>
       </c>
@@ -18866,7 +17147,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="3:4">
       <c r="C134" s="51" t="s">
         <v>53</v>
       </c>
@@ -18874,7 +17155,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="3:4">
       <c r="C135" s="51" t="s">
         <v>54</v>
       </c>
@@ -18882,7 +17163,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="3:4">
       <c r="C136" s="50" t="s">
         <v>55</v>
       </c>
@@ -18890,7 +17171,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="3:4">
       <c r="C137" s="50" t="s">
         <v>44</v>
       </c>
@@ -18898,7 +17179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="3:4">
       <c r="C138" s="50" t="s">
         <v>45</v>
       </c>
@@ -18906,8 +17187,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="153" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:19" ht="15" thickBot="1"/>
+    <row r="153" spans="2:19">
       <c r="B153" s="27"/>
       <c r="C153" s="27" t="s">
         <v>24</v>
@@ -18932,7 +17213,7 @@
         <v>CNX Finance</v>
       </c>
     </row>
-    <row r="154" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:19">
       <c r="B154" s="37" t="s">
         <v>27</v>
       </c>
@@ -18961,7 +17242,7 @@
         <v>0.14779618929373006</v>
       </c>
     </row>
-    <row r="155" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:19">
       <c r="B155" s="37" t="s">
         <v>28</v>
       </c>
@@ -18990,7 +17271,7 @@
         <v>3.7351505092876325E-2</v>
       </c>
     </row>
-    <row r="156" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="2:19" ht="15" thickBot="1">
       <c r="B156" s="37" t="s">
         <v>29</v>
       </c>
@@ -19019,7 +17300,7 @@
         <v>8.224139732919733E-2</v>
       </c>
     </row>
-    <row r="157" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:19">
       <c r="B157" s="37" t="s">
         <v>30</v>
       </c>
@@ -19033,7 +17314,7 @@
         <v>4047.45</v>
       </c>
     </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:3">
       <c r="B166" s="38" t="s">
         <v>34</v>
       </c>
@@ -19041,7 +17322,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:3">
       <c r="B167" s="39">
         <v>41003</v>
       </c>
@@ -19049,7 +17330,7 @@
         <v>440.3</v>
       </c>
     </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:3">
       <c r="B168" s="39">
         <v>41008</v>
       </c>
@@ -19057,7 +17338,7 @@
         <v>435.7</v>
       </c>
     </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:3">
       <c r="B169" s="39">
         <v>41009</v>
       </c>
@@ -19065,7 +17346,7 @@
         <v>433.7</v>
       </c>
     </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:3">
       <c r="B170" s="39">
         <v>41010</v>
       </c>
@@ -19073,7 +17354,7 @@
         <v>430.55</v>
       </c>
     </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:3">
       <c r="B171" s="39">
         <v>41011</v>
       </c>
@@ -19081,7 +17362,7 @@
         <v>433.2</v>
       </c>
     </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:3">
       <c r="B172" s="39">
         <v>41012</v>
       </c>
@@ -19089,7 +17370,7 @@
         <v>428.15</v>
       </c>
     </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:3">
       <c r="B173" s="39">
         <v>41015</v>
       </c>
@@ -19097,7 +17378,7 @@
         <v>431.6</v>
       </c>
     </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:3">
       <c r="B174" s="39">
         <v>41016</v>
       </c>
@@ -19105,7 +17386,7 @@
         <v>432.1</v>
       </c>
     </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:3">
       <c r="B175" s="39">
         <v>41017</v>
       </c>
@@ -19113,7 +17394,7 @@
         <v>427.75</v>
       </c>
     </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:3">
       <c r="B176" s="39">
         <v>41018</v>
       </c>
@@ -19121,7 +17402,7 @@
         <v>430.75</v>
       </c>
     </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:3">
       <c r="B177" s="39">
         <v>41019</v>
       </c>
@@ -19129,7 +17410,7 @@
         <v>429.9</v>
       </c>
     </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:3">
       <c r="B178" s="39">
         <v>41022</v>
       </c>
@@ -19137,7 +17418,7 @@
         <v>416.85</v>
       </c>
     </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:3">
       <c r="B179" s="39">
         <v>41023</v>
       </c>
@@ -19145,7 +17426,7 @@
         <v>414.5</v>
       </c>
     </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:3">
       <c r="B180" s="39">
         <v>41024</v>
       </c>
@@ -19153,7 +17434,7 @@
         <v>410.75</v>
       </c>
     </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:3">
       <c r="B181" s="39">
         <v>41025</v>
       </c>
@@ -19161,7 +17442,7 @@
         <v>407.65</v>
       </c>
     </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:3">
       <c r="B182" s="39">
         <v>41026</v>
       </c>
@@ -19169,7 +17450,7 @@
         <v>415.65</v>
       </c>
     </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:3">
       <c r="B183" s="39">
         <v>41027</v>
       </c>
@@ -19177,7 +17458,7 @@
         <v>416.75</v>
       </c>
     </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:3">
       <c r="B184" s="39">
         <v>41029</v>
       </c>
@@ -19185,7 +17466,7 @@
         <v>419.8</v>
       </c>
     </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:3">
       <c r="B185" s="39">
         <v>41031</v>
       </c>
@@ -19193,7 +17474,7 @@
         <v>419.25</v>
       </c>
     </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:3">
       <c r="B186" s="39">
         <v>41032</v>
       </c>
@@ -19201,7 +17482,7 @@
         <v>414.5</v>
       </c>
     </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:3">
       <c r="B187" s="39">
         <v>41033</v>
       </c>
@@ -19209,7 +17490,7 @@
         <v>413.05</v>
       </c>
     </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:3">
       <c r="B188" s="39">
         <v>41036</v>
       </c>
@@ -19217,7 +17498,7 @@
         <v>409.3</v>
       </c>
     </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:3">
       <c r="B189" s="39">
         <v>41037</v>
       </c>
@@ -19225,7 +17506,7 @@
         <v>407.1</v>
       </c>
     </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:3">
       <c r="B190" s="39">
         <v>41038</v>
       </c>
@@ -19233,7 +17514,7 @@
         <v>406.35</v>
       </c>
     </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:3">
       <c r="B191" s="39">
         <v>41039</v>
       </c>
@@ -19241,7 +17522,7 @@
         <v>408.3</v>
       </c>
     </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:3">
       <c r="B192" s="39">
         <v>41040</v>
       </c>
@@ -19249,7 +17530,7 @@
         <v>415.3</v>
       </c>
     </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:3">
       <c r="B193" s="39">
         <v>41043</v>
       </c>
@@ -19257,7 +17538,7 @@
         <v>413.1</v>
       </c>
     </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:3">
       <c r="B194" s="39">
         <v>41044</v>
       </c>
@@ -19265,7 +17546,7 @@
         <v>416.85</v>
       </c>
     </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:3">
       <c r="B195" s="39">
         <v>41045</v>
       </c>
@@ -19273,7 +17554,7 @@
         <v>408.75</v>
       </c>
     </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:3">
       <c r="B196" s="39">
         <v>41046</v>
       </c>
@@ -19281,7 +17562,7 @@
         <v>399.05</v>
       </c>
     </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:3">
       <c r="B197" s="39">
         <v>41047</v>
       </c>
@@ -19289,7 +17570,7 @@
         <v>403.75</v>
       </c>
     </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:3">
       <c r="B198" s="39">
         <v>41050</v>
       </c>
@@ -19297,7 +17578,7 @@
         <v>411.05</v>
       </c>
     </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:3">
       <c r="B199" s="39">
         <v>41051</v>
       </c>
@@ -19305,7 +17586,7 @@
         <v>405.05</v>
       </c>
     </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:3">
       <c r="B200" s="39">
         <v>41052</v>
       </c>
@@ -19313,7 +17594,7 @@
         <v>400.8</v>
       </c>
     </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:3">
       <c r="B201" s="39">
         <v>41053</v>
       </c>
@@ -19321,7 +17602,7 @@
         <v>407.05</v>
       </c>
     </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:3">
       <c r="B202" s="39">
         <v>41054</v>
       </c>
@@ -19329,7 +17610,7 @@
         <v>412.8</v>
       </c>
     </row>
-    <row r="203" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:3">
       <c r="B203" s="39">
         <v>41057</v>
       </c>
@@ -19337,7 +17618,7 @@
         <v>415.85</v>
       </c>
     </row>
-    <row r="204" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:3">
       <c r="B204" s="39">
         <v>41058</v>
       </c>
@@ -19345,7 +17626,7 @@
         <v>420.85</v>
       </c>
     </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:3">
       <c r="B205" s="39">
         <v>41059</v>
       </c>
@@ -19353,7 +17634,7 @@
         <v>415.5</v>
       </c>
     </row>
-    <row r="206" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:3">
       <c r="B206" s="39">
         <v>41060</v>
       </c>
@@ -19361,7 +17642,7 @@
         <v>418.7</v>
       </c>
     </row>
-    <row r="207" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:3">
       <c r="B207" s="39">
         <v>41061</v>
       </c>
@@ -19369,7 +17650,7 @@
         <v>411.7</v>
       </c>
     </row>
-    <row r="208" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:3">
       <c r="B208" s="39">
         <v>41064</v>
       </c>
@@ -19377,7 +17658,7 @@
         <v>412.55</v>
       </c>
     </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:3">
       <c r="B209" s="39">
         <v>41065</v>
       </c>
@@ -19385,7 +17666,7 @@
         <v>414.1</v>
       </c>
     </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:3">
       <c r="B210" s="39">
         <v>41066</v>
       </c>
@@ -19393,7 +17674,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:3">
       <c r="B211" s="39">
         <v>41067</v>
       </c>
@@ -19401,7 +17682,7 @@
         <v>418.55</v>
       </c>
     </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:3">
       <c r="B212" s="39">
         <v>41068</v>
       </c>
@@ -19409,7 +17690,7 @@
         <v>431.05</v>
       </c>
     </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:3">
       <c r="B213" s="39">
         <v>41071</v>
       </c>
@@ -19417,7 +17698,7 @@
         <v>425.35</v>
       </c>
     </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:3">
       <c r="B214" s="39">
         <v>41072</v>
       </c>
@@ -19425,7 +17706,7 @@
         <v>433.1</v>
       </c>
     </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:3">
       <c r="B215" s="39">
         <v>41073</v>
       </c>
@@ -19433,7 +17714,7 @@
         <v>429.25</v>
       </c>
     </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:3">
       <c r="B216" s="39">
         <v>41074</v>
       </c>
@@ -19441,7 +17722,7 @@
         <v>422.4</v>
       </c>
     </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:3">
       <c r="B217" s="39">
         <v>41075</v>
       </c>
@@ -19449,7 +17730,7 @@
         <v>424.15</v>
       </c>
     </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:3">
       <c r="B218" s="39">
         <v>41078</v>
       </c>
@@ -19457,7 +17738,7 @@
         <v>422.8</v>
       </c>
     </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:3">
       <c r="B219" s="39">
         <v>41079</v>
       </c>
@@ -19465,7 +17746,7 @@
         <v>428.05</v>
       </c>
     </row>
-    <row r="220" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:3">
       <c r="B220" s="39">
         <v>41080</v>
       </c>
@@ -19473,7 +17754,7 @@
         <v>428.35</v>
       </c>
     </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:3">
       <c r="B221" s="39">
         <v>41081</v>
       </c>
@@ -19481,7 +17762,7 @@
         <v>434.2</v>
       </c>
     </row>
-    <row r="222" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:3">
       <c r="B222" s="39">
         <v>41082</v>
       </c>
@@ -19489,7 +17770,7 @@
         <v>436.8</v>
       </c>
     </row>
-    <row r="223" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:3">
       <c r="B223" s="39">
         <v>41085</v>
       </c>
@@ -19497,7 +17778,7 @@
         <v>436.15</v>
       </c>
     </row>
-    <row r="224" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:3">
       <c r="B224" s="39">
         <v>41086</v>
       </c>
@@ -19505,7 +17786,7 @@
         <v>445.85</v>
       </c>
     </row>
-    <row r="225" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:3">
       <c r="B225" s="39">
         <v>41087</v>
       </c>
@@ -19513,7 +17794,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="226" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:3">
       <c r="B226" s="39">
         <v>41088</v>
       </c>
@@ -19521,7 +17802,7 @@
         <v>444.55</v>
       </c>
     </row>
-    <row r="227" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:3">
       <c r="B227" s="39">
         <v>41089</v>
       </c>
@@ -19529,7 +17810,7 @@
         <v>448.35</v>
       </c>
     </row>
-    <row r="228" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:3">
       <c r="B228" s="39">
         <v>41092</v>
       </c>
@@ -19537,7 +17818,7 @@
         <v>452.35</v>
       </c>
     </row>
-    <row r="229" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:3">
       <c r="B229" s="39">
         <v>41093</v>
       </c>
@@ -19545,7 +17826,7 @@
         <v>450.7</v>
       </c>
     </row>
-    <row r="230" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:3">
       <c r="B230" s="39">
         <v>41094</v>
       </c>
@@ -19553,7 +17834,7 @@
         <v>451.4</v>
       </c>
     </row>
-    <row r="231" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:3">
       <c r="B231" s="39">
         <v>41095</v>
       </c>
@@ -19561,7 +17842,7 @@
         <v>454.1</v>
       </c>
     </row>
-    <row r="232" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:3">
       <c r="B232" s="39">
         <v>41096</v>
       </c>
@@ -19569,7 +17850,7 @@
         <v>451.1</v>
       </c>
     </row>
-    <row r="233" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:3">
       <c r="B233" s="39">
         <v>41099</v>
       </c>
@@ -19577,7 +17858,7 @@
         <v>446.35</v>
       </c>
     </row>
-    <row r="234" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:3">
       <c r="B234" s="39">
         <v>41100</v>
       </c>
@@ -19585,7 +17866,7 @@
         <v>447.5</v>
       </c>
     </row>
-    <row r="235" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:3">
       <c r="B235" s="39">
         <v>41101</v>
       </c>
@@ -19593,7 +17874,7 @@
         <v>442.5</v>
       </c>
     </row>
-    <row r="236" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:3">
       <c r="B236" s="39">
         <v>41102</v>
       </c>
@@ -19601,7 +17882,7 @@
         <v>440.05</v>
       </c>
     </row>
-    <row r="237" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:3">
       <c r="B237" s="39">
         <v>41103</v>
       </c>
@@ -19609,7 +17890,7 @@
         <v>434.05</v>
       </c>
     </row>
-    <row r="238" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:3">
       <c r="B238" s="39">
         <v>41106</v>
       </c>
@@ -19617,7 +17898,7 @@
         <v>431.35</v>
       </c>
     </row>
-    <row r="239" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:3">
       <c r="B239" s="39">
         <v>41107</v>
       </c>
@@ -19625,7 +17906,7 @@
         <v>429.9</v>
       </c>
     </row>
-    <row r="240" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:3">
       <c r="B240" s="39">
         <v>41108</v>
       </c>
@@ -19633,7 +17914,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="241" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:3">
       <c r="B241" s="39">
         <v>41109</v>
       </c>
@@ -19641,7 +17922,7 @@
         <v>426.75</v>
       </c>
     </row>
-    <row r="242" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:3">
       <c r="B242" s="39">
         <v>41110</v>
       </c>
@@ -19649,7 +17930,7 @@
         <v>416.45</v>
       </c>
     </row>
-    <row r="243" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:3">
       <c r="B243" s="39">
         <v>41113</v>
       </c>
@@ -19657,7 +17938,7 @@
         <v>408.05</v>
       </c>
     </row>
-    <row r="244" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:3">
       <c r="B244" s="39">
         <v>41114</v>
       </c>
@@ -19665,7 +17946,7 @@
         <v>406.95</v>
       </c>
     </row>
-    <row r="245" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="245" spans="2:3">
       <c r="B245" s="39">
         <v>41115</v>
       </c>
@@ -19673,7 +17954,7 @@
         <v>404.45</v>
       </c>
     </row>
-    <row r="246" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="246" spans="2:3">
       <c r="B246" s="39">
         <v>41116</v>
       </c>
@@ -19681,7 +17962,7 @@
         <v>400.7</v>
       </c>
     </row>
-    <row r="247" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:3">
       <c r="B247" s="39">
         <v>41117</v>
       </c>
@@ -19689,7 +17970,7 @@
         <v>400.75</v>
       </c>
     </row>
-    <row r="248" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="248" spans="2:3">
       <c r="B248" s="39">
         <v>41120</v>
       </c>
@@ -19697,7 +17978,7 @@
         <v>409.25</v>
       </c>
     </row>
-    <row r="249" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="249" spans="2:3">
       <c r="B249" s="39">
         <v>41121</v>
       </c>
@@ -19705,7 +17986,7 @@
         <v>413.65</v>
       </c>
     </row>
-    <row r="250" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="250" spans="2:3">
       <c r="B250" s="39">
         <v>41122</v>
       </c>
@@ -19713,7 +17994,7 @@
         <v>409.35</v>
       </c>
     </row>
-    <row r="251" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="251" spans="2:3">
       <c r="B251" s="39">
         <v>41123</v>
       </c>
@@ -19721,7 +18002,7 @@
         <v>412.75</v>
       </c>
     </row>
-    <row r="252" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:3">
       <c r="B252" s="39">
         <v>41124</v>
       </c>
@@ -19729,7 +18010,7 @@
         <v>405.7</v>
       </c>
     </row>
-    <row r="253" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:3">
       <c r="B253" s="39">
         <v>41127</v>
       </c>
@@ -19737,7 +18018,7 @@
         <v>410.5</v>
       </c>
     </row>
-    <row r="254" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="254" spans="2:3">
       <c r="B254" s="39">
         <v>41128</v>
       </c>
@@ -19745,7 +18026,7 @@
         <v>416.05</v>
       </c>
     </row>
-    <row r="255" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="255" spans="2:3">
       <c r="B255" s="39">
         <v>41129</v>
       </c>
@@ -19753,7 +18034,7 @@
         <v>424.65</v>
       </c>
     </row>
-    <row r="256" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:3">
       <c r="B256" s="39">
         <v>41130</v>
       </c>
@@ -19761,7 +18042,7 @@
         <v>418.15</v>
       </c>
     </row>
-    <row r="257" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="257" spans="2:3">
       <c r="B257" s="39">
         <v>41131</v>
       </c>
@@ -19769,7 +18050,7 @@
         <v>423.3</v>
       </c>
     </row>
-    <row r="258" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="258" spans="2:3">
       <c r="B258" s="39">
         <v>41134</v>
       </c>
@@ -19777,7 +18058,7 @@
         <v>427.55</v>
       </c>
     </row>
-    <row r="259" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:3">
       <c r="B259" s="39">
         <v>41135</v>
       </c>
@@ -19785,7 +18066,7 @@
         <v>427.45</v>
       </c>
     </row>
-    <row r="260" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="260" spans="2:3">
       <c r="B260" s="39">
         <v>41137</v>
       </c>
@@ -19793,7 +18074,7 @@
         <v>435.5</v>
       </c>
     </row>
-    <row r="261" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="261" spans="2:3">
       <c r="B261" s="39">
         <v>41138</v>
       </c>
@@ -19801,7 +18082,7 @@
         <v>437.4</v>
       </c>
     </row>
-    <row r="262" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="262" spans="2:3">
       <c r="B262" s="39">
         <v>41142</v>
       </c>
@@ -19809,7 +18090,7 @@
         <v>437.8</v>
       </c>
     </row>
-    <row r="263" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="263" spans="2:3">
       <c r="B263" s="39">
         <v>41143</v>
       </c>
@@ -19817,7 +18098,7 @@
         <v>436.85</v>
       </c>
     </row>
-    <row r="264" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:3">
       <c r="B264" s="39">
         <v>41144</v>
       </c>
@@ -19825,7 +18106,7 @@
         <v>435.15</v>
       </c>
     </row>
-    <row r="265" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="265" spans="2:3">
       <c r="B265" s="39">
         <v>41145</v>
       </c>
@@ -19833,7 +18114,7 @@
         <v>427.4</v>
       </c>
     </row>
-    <row r="266" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:3">
       <c r="B266" s="39">
         <v>41148</v>
       </c>
@@ -19841,7 +18122,7 @@
         <v>414.5</v>
       </c>
     </row>
-    <row r="267" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="267" spans="2:3">
       <c r="B267" s="39">
         <v>41149</v>
       </c>
@@ -19849,7 +18130,7 @@
         <v>401.9</v>
       </c>
     </row>
-    <row r="268" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="268" spans="2:3">
       <c r="B268" s="39">
         <v>41150</v>
       </c>
@@ -19857,7 +18138,7 @@
         <v>407.65</v>
       </c>
     </row>
-    <row r="269" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="269" spans="2:3">
       <c r="B269" s="39">
         <v>41151</v>
       </c>
@@ -19865,7 +18146,7 @@
         <v>407.5</v>
       </c>
     </row>
-    <row r="270" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="270" spans="2:3">
       <c r="B270" s="39">
         <v>41152</v>
       </c>
@@ -19873,7 +18154,7 @@
         <v>407.05</v>
       </c>
     </row>
-    <row r="271" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="271" spans="2:3">
       <c r="B271" s="39">
         <v>41155</v>
       </c>
@@ -19881,7 +18162,7 @@
         <v>406.25</v>
       </c>
     </row>
-    <row r="272" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="272" spans="2:3">
       <c r="B272" s="39">
         <v>41156</v>
       </c>
@@ -19889,7 +18170,7 @@
         <v>406.8</v>
       </c>
     </row>
-    <row r="273" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="273" spans="2:3">
       <c r="B273" s="39">
         <v>41157</v>
       </c>
@@ -19897,7 +18178,7 @@
         <v>400.95</v>
       </c>
     </row>
-    <row r="274" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="274" spans="2:3">
       <c r="B274" s="39">
         <v>41158</v>
       </c>
@@ -19905,7 +18186,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="275" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="275" spans="2:3">
       <c r="B275" s="39">
         <v>41159</v>
       </c>
@@ -19913,7 +18194,7 @@
         <v>404.3</v>
       </c>
     </row>
-    <row r="276" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="276" spans="2:3">
       <c r="B276" s="39">
         <v>41160</v>
       </c>
@@ -19921,7 +18202,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="277" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="277" spans="2:3">
       <c r="B277" s="39">
         <v>41162</v>
       </c>
@@ -19929,7 +18210,7 @@
         <v>403.25</v>
       </c>
     </row>
-    <row r="278" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="278" spans="2:3">
       <c r="B278" s="39">
         <v>41163</v>
       </c>
@@ -19937,7 +18218,7 @@
         <v>404.25</v>
       </c>
     </row>
-    <row r="279" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="279" spans="2:3">
       <c r="B279" s="39">
         <v>41164</v>
       </c>
@@ -19945,7 +18226,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="280" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="280" spans="2:3">
       <c r="B280" s="39">
         <v>41165</v>
       </c>
@@ -19953,7 +18234,7 @@
         <v>406.2</v>
       </c>
     </row>
-    <row r="281" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="281" spans="2:3">
       <c r="B281" s="39">
         <v>41166</v>
       </c>
@@ -19961,7 +18242,7 @@
         <v>409.7</v>
       </c>
     </row>
-    <row r="282" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="282" spans="2:3">
       <c r="B282" s="39">
         <v>41169</v>
       </c>
@@ -19969,7 +18250,7 @@
         <v>429.25</v>
       </c>
     </row>
-    <row r="283" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="283" spans="2:3">
       <c r="B283" s="39">
         <v>41170</v>
       </c>
@@ -19977,7 +18258,7 @@
         <v>428.45</v>
       </c>
     </row>
-    <row r="284" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="284" spans="2:3">
       <c r="B284" s="39">
         <v>41172</v>
       </c>
@@ -19985,7 +18266,7 @@
         <v>423.05</v>
       </c>
     </row>
-    <row r="285" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="285" spans="2:3">
       <c r="B285" s="39">
         <v>41173</v>
       </c>
@@ -19993,7 +18274,7 @@
         <v>446.95</v>
       </c>
     </row>
-    <row r="286" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="286" spans="2:3">
       <c r="B286" s="39">
         <v>41176</v>
       </c>
@@ -20001,7 +18282,7 @@
         <v>439.9</v>
       </c>
     </row>
-    <row r="287" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="287" spans="2:3">
       <c r="B287" s="39">
         <v>41177</v>
       </c>
@@ -20009,7 +18290,7 @@
         <v>446.75</v>
       </c>
     </row>
-    <row r="288" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="288" spans="2:3">
       <c r="B288" s="39">
         <v>41178</v>
       </c>
@@ -20017,7 +18298,7 @@
         <v>437.85</v>
       </c>
     </row>
-    <row r="289" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="289" spans="2:3">
       <c r="B289" s="39">
         <v>41179</v>
       </c>
@@ -20025,7 +18306,7 @@
         <v>438.8</v>
       </c>
     </row>
-    <row r="290" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="290" spans="2:3">
       <c r="B290" s="39">
         <v>41180</v>
       </c>
@@ -20033,7 +18314,7 @@
         <v>445.75</v>
       </c>
     </row>
-    <row r="291" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="291" spans="2:3">
       <c r="B291" s="39">
         <v>41183</v>
       </c>
@@ -20041,7 +18322,7 @@
         <v>449.7</v>
       </c>
     </row>
-    <row r="292" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="292" spans="2:3">
       <c r="B292" s="39">
         <v>41185</v>
       </c>
@@ -20049,7 +18330,7 @@
         <v>449.3</v>
       </c>
     </row>
-    <row r="293" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="293" spans="2:3">
       <c r="B293" s="39">
         <v>41186</v>
       </c>
@@ -20057,7 +18338,7 @@
         <v>458.8</v>
       </c>
     </row>
-    <row r="294" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="294" spans="2:3">
       <c r="B294" s="39">
         <v>41187</v>
       </c>
@@ -20065,7 +18346,7 @@
         <v>457.1</v>
       </c>
     </row>
-    <row r="295" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="295" spans="2:3">
       <c r="B295" s="39">
         <v>41190</v>
       </c>
@@ -20073,7 +18354,7 @@
         <v>460.3</v>
       </c>
     </row>
-    <row r="296" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="296" spans="2:3">
       <c r="B296" s="39">
         <v>41191</v>
       </c>
@@ -20081,7 +18362,7 @@
         <v>463.15</v>
       </c>
     </row>
-    <row r="297" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="297" spans="2:3">
       <c r="B297" s="39">
         <v>41192</v>
       </c>
@@ -20089,7 +18370,7 @@
         <v>459.1</v>
       </c>
     </row>
-    <row r="298" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="298" spans="2:3">
       <c r="B298" s="39">
         <v>41193</v>
       </c>
@@ -20097,7 +18378,7 @@
         <v>479.8</v>
       </c>
     </row>
-    <row r="299" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="299" spans="2:3">
       <c r="B299" s="39">
         <v>41194</v>
       </c>
@@ -20105,7 +18386,7 @@
         <v>482.65</v>
       </c>
     </row>
-    <row r="300" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="300" spans="2:3">
       <c r="B300" s="39">
         <v>41197</v>
       </c>
@@ -20113,7 +18394,7 @@
         <v>471.55</v>
       </c>
     </row>
-    <row r="301" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="301" spans="2:3">
       <c r="B301" s="39">
         <v>41198</v>
       </c>
@@ -20121,7 +18402,7 @@
         <v>470.45</v>
       </c>
     </row>
-    <row r="302" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="302" spans="2:3">
       <c r="B302" s="39">
         <v>41199</v>
       </c>
@@ -20129,7 +18410,7 @@
         <v>470.3</v>
       </c>
     </row>
-    <row r="303" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="303" spans="2:3">
       <c r="B303" s="39">
         <v>41200</v>
       </c>
@@ -20137,7 +18418,7 @@
         <v>482.55</v>
       </c>
     </row>
-    <row r="304" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="304" spans="2:3">
       <c r="B304" s="39">
         <v>41201</v>
       </c>
@@ -20145,7 +18426,7 @@
         <v>482.2</v>
       </c>
     </row>
-    <row r="305" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="305" spans="2:3">
       <c r="B305" s="39">
         <v>41204</v>
       </c>
@@ -20153,7 +18434,7 @@
         <v>486.6</v>
       </c>
     </row>
-    <row r="306" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="306" spans="2:3">
       <c r="B306" s="39">
         <v>41205</v>
       </c>
@@ -20161,7 +18442,7 @@
         <v>488.05</v>
       </c>
     </row>
-    <row r="307" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="307" spans="2:3">
       <c r="B307" s="39">
         <v>41207</v>
       </c>
@@ -20169,7 +18450,7 @@
         <v>490.45</v>
       </c>
     </row>
-    <row r="308" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="308" spans="2:3">
       <c r="B308" s="39">
         <v>41208</v>
       </c>
@@ -20177,7 +18458,7 @@
         <v>487.55</v>
       </c>
     </row>
-    <row r="309" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="309" spans="2:3">
       <c r="B309" s="39">
         <v>41211</v>
       </c>
@@ -20185,7 +18466,7 @@
         <v>486.15</v>
       </c>
     </row>
-    <row r="310" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="310" spans="2:3">
       <c r="B310" s="39">
         <v>41212</v>
       </c>
@@ -20193,7 +18474,7 @@
         <v>479.7</v>
       </c>
     </row>
-    <row r="311" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="311" spans="2:3">
       <c r="B311" s="39">
         <v>41213</v>
       </c>
@@ -20201,7 +18482,7 @@
         <v>483.15</v>
       </c>
     </row>
-    <row r="312" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="312" spans="2:3">
       <c r="B312" s="39">
         <v>41214</v>
       </c>
@@ -20209,7 +18490,7 @@
         <v>483.85</v>
       </c>
     </row>
-    <row r="313" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="313" spans="2:3">
       <c r="B313" s="39">
         <v>41215</v>
       </c>
@@ -20217,7 +18498,7 @@
         <v>475.4</v>
       </c>
     </row>
-    <row r="314" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="314" spans="2:3">
       <c r="B314" s="39">
         <v>41218</v>
       </c>
@@ -20225,7 +18506,7 @@
         <v>479.65</v>
       </c>
     </row>
-    <row r="315" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="315" spans="2:3">
       <c r="B315" s="39">
         <v>41219</v>
       </c>
@@ -20233,7 +18514,7 @@
         <v>477.4</v>
       </c>
     </row>
-    <row r="316" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="316" spans="2:3">
       <c r="B316" s="39">
         <v>41220</v>
       </c>
@@ -20241,7 +18522,7 @@
         <v>481.75</v>
       </c>
     </row>
-    <row r="317" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="317" spans="2:3">
       <c r="B317" s="39">
         <v>41221</v>
       </c>
@@ -20249,7 +18530,7 @@
         <v>477.75</v>
       </c>
     </row>
-    <row r="318" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="318" spans="2:3">
       <c r="B318" s="39">
         <v>41222</v>
       </c>
@@ -20257,7 +18538,7 @@
         <v>472.3</v>
       </c>
     </row>
-    <row r="319" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="319" spans="2:3">
       <c r="B319" s="39">
         <v>41225</v>
       </c>
@@ -20265,7 +18546,7 @@
         <v>465.6</v>
       </c>
     </row>
-    <row r="320" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="320" spans="2:3">
       <c r="B320" s="39">
         <v>41226</v>
       </c>
@@ -20273,7 +18554,7 @@
         <v>470.15</v>
       </c>
     </row>
-    <row r="321" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="321" spans="2:3">
       <c r="B321" s="39">
         <v>41228</v>
       </c>
@@ -20281,7 +18562,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="322" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="322" spans="2:3">
       <c r="B322" s="39">
         <v>41229</v>
       </c>
@@ -20289,7 +18570,7 @@
         <v>458.75</v>
       </c>
     </row>
-    <row r="323" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="323" spans="2:3">
       <c r="B323" s="39">
         <v>41232</v>
       </c>
@@ -20297,7 +18578,7 @@
         <v>456.15</v>
       </c>
     </row>
-    <row r="324" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="324" spans="2:3">
       <c r="B324" s="39">
         <v>41233</v>
       </c>
@@ -20305,7 +18586,7 @@
         <v>458.6</v>
       </c>
     </row>
-    <row r="325" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="325" spans="2:3">
       <c r="B325" s="39">
         <v>41234</v>
       </c>
@@ -20313,7 +18594,7 @@
         <v>463.3</v>
       </c>
     </row>
-    <row r="326" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="326" spans="2:3">
       <c r="B326" s="39">
         <v>41235</v>
       </c>
@@ -20321,7 +18602,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="327" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="327" spans="2:3">
       <c r="B327" s="39">
         <v>41236</v>
       </c>
@@ -20329,7 +18610,7 @@
         <v>461.9</v>
       </c>
     </row>
-    <row r="328" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="328" spans="2:3">
       <c r="B328" s="39">
         <v>41239</v>
       </c>
@@ -20337,7 +18618,7 @@
         <v>468.75</v>
       </c>
     </row>
-    <row r="329" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="329" spans="2:3">
       <c r="B329" s="39">
         <v>41240</v>
       </c>
@@ -20345,7 +18626,7 @@
         <v>461.35</v>
       </c>
     </row>
-    <row r="330" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="330" spans="2:3">
       <c r="B330" s="39">
         <v>41242</v>
       </c>
@@ -20353,7 +18634,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="331" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="331" spans="2:3">
       <c r="B331" s="39">
         <v>41243</v>
       </c>
@@ -20361,7 +18642,7 @@
         <v>481.8</v>
       </c>
     </row>
-    <row r="332" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="332" spans="2:3">
       <c r="B332" s="39">
         <v>41246</v>
       </c>
@@ -20369,7 +18650,7 @@
         <v>483.4</v>
       </c>
     </row>
-    <row r="333" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="333" spans="2:3">
       <c r="B333" s="39">
         <v>41247</v>
       </c>
@@ -20377,7 +18658,7 @@
         <v>483.1</v>
       </c>
     </row>
-    <row r="334" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="334" spans="2:3">
       <c r="B334" s="39">
         <v>41248</v>
       </c>
@@ -20385,7 +18666,7 @@
         <v>482.65</v>
       </c>
     </row>
-    <row r="335" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="335" spans="2:3">
       <c r="B335" s="39">
         <v>41249</v>
       </c>
@@ -20393,7 +18674,7 @@
         <v>481.3</v>
       </c>
     </row>
-    <row r="336" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="336" spans="2:3">
       <c r="B336" s="39">
         <v>41250</v>
       </c>
@@ -20401,7 +18682,7 @@
         <v>482.05</v>
       </c>
     </row>
-    <row r="337" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="337" spans="2:3">
       <c r="B337" s="39">
         <v>41253</v>
       </c>
@@ -20409,7 +18690,7 @@
         <v>505.8</v>
       </c>
     </row>
-    <row r="338" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="338" spans="2:3">
       <c r="B338" s="39">
         <v>41254</v>
       </c>
@@ -20417,7 +18698,7 @@
         <v>500.3</v>
       </c>
     </row>
-    <row r="339" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="339" spans="2:3">
       <c r="B339" s="39">
         <v>41255</v>
       </c>
@@ -20425,7 +18706,7 @@
         <v>498.35</v>
       </c>
     </row>
-    <row r="340" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="340" spans="2:3">
       <c r="B340" s="39">
         <v>41256</v>
       </c>
@@ -20433,7 +18714,7 @@
         <v>485.4</v>
       </c>
     </row>
-    <row r="341" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="341" spans="2:3">
       <c r="B341" s="39">
         <v>41257</v>
       </c>
@@ -20441,7 +18722,7 @@
         <v>482.05</v>
       </c>
     </row>
-    <row r="342" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="342" spans="2:3">
       <c r="B342" s="39">
         <v>41260</v>
       </c>
@@ -20449,7 +18730,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="343" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="343" spans="2:3">
       <c r="B343" s="39">
         <v>41261</v>
       </c>
@@ -20457,7 +18738,7 @@
         <v>497.35</v>
       </c>
     </row>
-    <row r="344" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="344" spans="2:3">
       <c r="B344" s="39">
         <v>41262</v>
       </c>
@@ -20465,7 +18746,7 @@
         <v>526.9</v>
       </c>
     </row>
-    <row r="345" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="345" spans="2:3">
       <c r="B345" s="39">
         <v>41263</v>
       </c>
@@ -20473,7 +18754,7 @@
         <v>521.85</v>
       </c>
     </row>
-    <row r="346" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="346" spans="2:3">
       <c r="B346" s="39">
         <v>41264</v>
       </c>
@@ -20481,7 +18762,7 @@
         <v>517.54999999999995</v>
       </c>
     </row>
-    <row r="347" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="347" spans="2:3">
       <c r="B347" s="39">
         <v>41267</v>
       </c>
@@ -20489,7 +18770,7 @@
         <v>520.54999999999995</v>
       </c>
     </row>
-    <row r="348" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="348" spans="2:3">
       <c r="B348" s="39">
         <v>41269</v>
       </c>
@@ -20497,7 +18778,7 @@
         <v>524.1</v>
       </c>
     </row>
-    <row r="349" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="349" spans="2:3">
       <c r="B349" s="39">
         <v>41270</v>
       </c>
@@ -20505,7 +18786,7 @@
         <v>535.20000000000005</v>
       </c>
     </row>
-    <row r="350" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="350" spans="2:3">
       <c r="B350" s="39">
         <v>41271</v>
       </c>
@@ -20513,7 +18794,7 @@
         <v>538.85</v>
       </c>
     </row>
-    <row r="351" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="351" spans="2:3">
       <c r="B351" s="39">
         <v>41274</v>
       </c>
@@ -20521,7 +18802,7 @@
         <v>538.29999999999995</v>
       </c>
     </row>
-    <row r="352" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="352" spans="2:3">
       <c r="B352" s="39">
         <v>41275</v>
       </c>
@@ -20529,7 +18810,7 @@
         <v>540.29999999999995</v>
       </c>
     </row>
-    <row r="353" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="353" spans="2:3">
       <c r="B353" s="39">
         <v>41276</v>
       </c>
@@ -20537,7 +18818,7 @@
         <v>542.70000000000005</v>
       </c>
     </row>
-    <row r="354" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="354" spans="2:3">
       <c r="B354" s="39">
         <v>41277</v>
       </c>
@@ -20545,7 +18826,7 @@
         <v>537.70000000000005</v>
       </c>
     </row>
-    <row r="355" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="355" spans="2:3">
       <c r="B355" s="39">
         <v>41278</v>
       </c>
@@ -20553,7 +18834,7 @@
         <v>526.65</v>
       </c>
     </row>
-    <row r="356" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="356" spans="2:3">
       <c r="B356" s="39">
         <v>41281</v>
       </c>
@@ -20561,7 +18842,7 @@
         <v>522.29999999999995</v>
       </c>
     </row>
-    <row r="357" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="357" spans="2:3">
       <c r="B357" s="39">
         <v>41282</v>
       </c>
@@ -20569,7 +18850,7 @@
         <v>520.6</v>
       </c>
     </row>
-    <row r="358" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="358" spans="2:3">
       <c r="B358" s="39">
         <v>41283</v>
       </c>
@@ -20577,7 +18858,7 @@
         <v>524.04999999999995</v>
       </c>
     </row>
-    <row r="359" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="359" spans="2:3">
       <c r="B359" s="39">
         <v>41284</v>
       </c>
@@ -20585,7 +18866,7 @@
         <v>515.35</v>
       </c>
     </row>
-    <row r="360" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="360" spans="2:3">
       <c r="B360" s="39">
         <v>41285</v>
       </c>
@@ -20593,7 +18874,7 @@
         <v>507.3</v>
       </c>
     </row>
-    <row r="361" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="361" spans="2:3">
       <c r="B361" s="39">
         <v>41288</v>
       </c>
@@ -20601,7 +18882,7 @@
         <v>519.85</v>
       </c>
     </row>
-    <row r="362" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="362" spans="2:3">
       <c r="B362" s="39">
         <v>41289</v>
       </c>
@@ -20609,7 +18890,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="363" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="363" spans="2:3">
       <c r="B363" s="39">
         <v>41290</v>
       </c>
@@ -20617,7 +18898,7 @@
         <v>516.4</v>
       </c>
     </row>
-    <row r="364" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="364" spans="2:3">
       <c r="B364" s="39">
         <v>41291</v>
       </c>
@@ -20625,7 +18906,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="365" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="365" spans="2:3">
       <c r="B365" s="39">
         <v>41292</v>
       </c>
@@ -20633,7 +18914,7 @@
         <v>503.2</v>
       </c>
     </row>
-    <row r="366" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="366" spans="2:3">
       <c r="B366" s="39">
         <v>41295</v>
       </c>
@@ -20641,7 +18922,7 @@
         <v>501.25</v>
       </c>
     </row>
-    <row r="367" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="367" spans="2:3">
       <c r="B367" s="39">
         <v>41296</v>
       </c>
@@ -20649,7 +18930,7 @@
         <v>503.2</v>
       </c>
     </row>
-    <row r="368" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="368" spans="2:3">
       <c r="B368" s="39">
         <v>41297</v>
       </c>
@@ -20657,7 +18938,7 @@
         <v>501.9</v>
       </c>
     </row>
-    <row r="369" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="369" spans="2:3">
       <c r="B369" s="39">
         <v>41298</v>
       </c>
@@ -20665,7 +18946,7 @@
         <v>497.5</v>
       </c>
     </row>
-    <row r="370" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="370" spans="2:3">
       <c r="B370" s="39">
         <v>41299</v>
       </c>
@@ -20673,7 +18954,7 @@
         <v>506.25</v>
       </c>
     </row>
-    <row r="371" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="371" spans="2:3">
       <c r="B371" s="39">
         <v>41302</v>
       </c>
@@ -20681,7 +18962,7 @@
         <v>502.55</v>
       </c>
     </row>
-    <row r="372" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="372" spans="2:3">
       <c r="B372" s="39">
         <v>41303</v>
       </c>
@@ -20689,7 +18970,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="373" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="373" spans="2:3">
       <c r="B373" s="39">
         <v>41304</v>
       </c>
@@ -20697,7 +18978,7 @@
         <v>508.8</v>
       </c>
     </row>
-    <row r="374" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="374" spans="2:3">
       <c r="B374" s="39">
         <v>41305</v>
       </c>
@@ -20705,7 +18986,7 @@
         <v>506.1</v>
       </c>
     </row>
-    <row r="375" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="375" spans="2:3">
       <c r="B375" s="39">
         <v>41306</v>
       </c>
@@ -20713,7 +18994,7 @@
         <v>511.15</v>
       </c>
     </row>
-    <row r="376" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="376" spans="2:3">
       <c r="B376" s="39">
         <v>41309</v>
       </c>
@@ -20721,7 +19002,7 @@
         <v>507.25</v>
       </c>
     </row>
-    <row r="377" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="377" spans="2:3">
       <c r="B377" s="39">
         <v>41310</v>
       </c>
@@ -20729,7 +19010,7 @@
         <v>508.3</v>
       </c>
     </row>
-    <row r="378" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="378" spans="2:3">
       <c r="B378" s="39">
         <v>41311</v>
       </c>
@@ -20737,7 +19018,7 @@
         <v>512.9</v>
       </c>
     </row>
-    <row r="379" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="379" spans="2:3">
       <c r="B379" s="39">
         <v>41312</v>
       </c>
@@ -20745,7 +19026,7 @@
         <v>517.20000000000005</v>
       </c>
     </row>
-    <row r="380" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="380" spans="2:3">
       <c r="B380" s="39">
         <v>41313</v>
       </c>
@@ -20753,7 +19034,7 @@
         <v>515.70000000000005</v>
       </c>
     </row>
-    <row r="381" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="381" spans="2:3">
       <c r="B381" s="39">
         <v>41316</v>
       </c>
@@ -20761,7 +19042,7 @@
         <v>515.5</v>
       </c>
     </row>
-    <row r="382" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="382" spans="2:3">
       <c r="B382" s="39">
         <v>41317</v>
       </c>
@@ -20769,7 +19050,7 @@
         <v>514.95000000000005</v>
       </c>
     </row>
-    <row r="383" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="383" spans="2:3">
       <c r="B383" s="39">
         <v>41318</v>
       </c>
@@ -20777,7 +19058,7 @@
         <v>507.6</v>
       </c>
     </row>
-    <row r="384" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="384" spans="2:3">
       <c r="B384" s="39">
         <v>41319</v>
       </c>
@@ -20785,7 +19066,7 @@
         <v>499.65</v>
       </c>
     </row>
-    <row r="385" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="385" spans="2:3">
       <c r="B385" s="39">
         <v>41320</v>
       </c>
@@ -20793,7 +19074,7 @@
         <v>503.45</v>
       </c>
     </row>
-    <row r="386" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="386" spans="2:3">
       <c r="B386" s="39">
         <v>41323</v>
       </c>
@@ -20801,7 +19082,7 @@
         <v>500.85</v>
       </c>
     </row>
-    <row r="387" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="387" spans="2:3">
       <c r="B387" s="39">
         <v>41324</v>
       </c>
@@ -20809,7 +19090,7 @@
         <v>504.9</v>
       </c>
     </row>
-    <row r="388" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="388" spans="2:3">
       <c r="B388" s="39">
         <v>41325</v>
       </c>
@@ -20817,7 +19098,7 @@
         <v>500.15</v>
       </c>
     </row>
-    <row r="389" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="389" spans="2:3">
       <c r="B389" s="39">
         <v>41326</v>
       </c>
@@ -20825,7 +19106,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="390" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="390" spans="2:3">
       <c r="B390" s="39">
         <v>41327</v>
       </c>
@@ -20833,7 +19114,7 @@
         <v>495.7</v>
       </c>
     </row>
-    <row r="391" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="391" spans="2:3">
       <c r="B391" s="39">
         <v>41330</v>
       </c>
@@ -20841,7 +19122,7 @@
         <v>495.55</v>
       </c>
     </row>
-    <row r="392" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="392" spans="2:3">
       <c r="B392" s="39">
         <v>41331</v>
       </c>
@@ -20849,7 +19130,7 @@
         <v>493.65</v>
       </c>
     </row>
-    <row r="393" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="393" spans="2:3">
       <c r="B393" s="39">
         <v>41332</v>
       </c>
@@ -20857,7 +19138,7 @@
         <v>500.1</v>
       </c>
     </row>
-    <row r="394" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="394" spans="2:3">
       <c r="B394" s="39">
         <v>41333</v>
       </c>
@@ -20865,7 +19146,7 @@
         <v>493.6</v>
       </c>
     </row>
-    <row r="395" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="395" spans="2:3">
       <c r="B395" s="39">
         <v>41334</v>
       </c>
@@ -20873,7 +19154,7 @@
         <v>490.25</v>
       </c>
     </row>
-    <row r="396" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="396" spans="2:3">
       <c r="B396" s="39">
         <v>41337</v>
       </c>
@@ -20881,7 +19162,7 @@
         <v>488.9</v>
       </c>
     </row>
-    <row r="397" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="397" spans="2:3">
       <c r="B397" s="39">
         <v>41338</v>
       </c>
@@ -20889,7 +19170,7 @@
         <v>490.25</v>
       </c>
     </row>
-    <row r="398" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="398" spans="2:3">
       <c r="B398" s="39">
         <v>41339</v>
       </c>
@@ -20897,7 +19178,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="399" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="399" spans="2:3">
       <c r="B399" s="39">
         <v>41340</v>
       </c>
@@ -20905,7 +19186,7 @@
         <v>489.95</v>
       </c>
     </row>
-    <row r="400" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="400" spans="2:3">
       <c r="B400" s="39">
         <v>41341</v>
       </c>
@@ -20913,7 +19194,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="401" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="401" spans="2:3">
       <c r="B401" s="39">
         <v>41344</v>
       </c>
@@ -20921,7 +19202,7 @@
         <v>496.1</v>
       </c>
     </row>
-    <row r="402" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="402" spans="2:3">
       <c r="B402" s="39">
         <v>41345</v>
       </c>
@@ -20929,7 +19210,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="403" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="403" spans="2:3">
       <c r="B403" s="39">
         <v>41346</v>
       </c>
@@ -20937,7 +19218,7 @@
         <v>484.65</v>
       </c>
     </row>
-    <row r="404" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="404" spans="2:3">
       <c r="B404" s="39">
         <v>41347</v>
       </c>
@@ -20945,7 +19226,7 @@
         <v>491.75</v>
       </c>
     </row>
-    <row r="405" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="405" spans="2:3">
       <c r="B405" s="39">
         <v>41348</v>
       </c>
@@ -20953,7 +19234,7 @@
         <v>489.65</v>
       </c>
     </row>
-    <row r="406" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="406" spans="2:3">
       <c r="B406" s="39">
         <v>41351</v>
       </c>
@@ -20961,7 +19242,7 @@
         <v>486.65</v>
       </c>
     </row>
-    <row r="407" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="407" spans="2:3">
       <c r="B407" s="39">
         <v>41352</v>
       </c>
@@ -20969,7 +19250,7 @@
         <v>487.3</v>
       </c>
     </row>
-    <row r="408" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="408" spans="2:3">
       <c r="B408" s="39">
         <v>41353</v>
       </c>
@@ -20977,7 +19258,7 @@
         <v>480.45</v>
       </c>
     </row>
-    <row r="409" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="409" spans="2:3">
       <c r="B409" s="39">
         <v>41354</v>
       </c>
@@ -20985,7 +19266,7 @@
         <v>469.7</v>
       </c>
     </row>
-    <row r="410" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="410" spans="2:3">
       <c r="B410" s="39">
         <v>41355</v>
       </c>
@@ -20993,7 +19274,7 @@
         <v>482.2</v>
       </c>
     </row>
-    <row r="411" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="411" spans="2:3">
       <c r="B411" s="39">
         <v>41358</v>
       </c>
@@ -21001,7 +19282,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="412" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="412" spans="2:3">
       <c r="B412" s="39">
         <v>41359</v>
       </c>
@@ -21009,7 +19290,7 @@
         <v>488.25</v>
       </c>
     </row>
-    <row r="413" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="413" spans="2:3">
       <c r="B413" s="39">
         <v>41361</v>
       </c>
@@ -21017,7 +19298,7 @@
         <v>480.55</v>
       </c>
     </row>
-    <row r="414" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="414" spans="2:3">
       <c r="B414" s="39">
         <v>41365</v>
       </c>
@@ -21025,7 +19306,7 @@
         <v>486.5</v>
       </c>
     </row>
-    <row r="415" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="415" spans="2:3">
       <c r="B415" s="39">
         <v>41366</v>
       </c>
@@ -21033,7 +19314,7 @@
         <v>487.95</v>
       </c>
     </row>
-    <row r="416" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="416" spans="2:3">
       <c r="B416" s="39">
         <v>41367</v>
       </c>
@@ -21041,7 +19322,7 @@
         <v>481.5</v>
       </c>
     </row>
-    <row r="417" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="417" spans="2:3">
       <c r="B417" s="39">
         <v>41368</v>
       </c>
@@ -21049,7 +19330,7 @@
         <v>474.05</v>
       </c>
     </row>
-    <row r="418" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="418" spans="2:3">
       <c r="B418" s="39">
         <v>41369</v>
       </c>
@@ -21057,7 +19338,7 @@
         <v>465.95</v>
       </c>
     </row>
-    <row r="419" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="419" spans="2:3">
       <c r="B419" s="39">
         <v>41372</v>
       </c>
@@ -21065,7 +19346,7 @@
         <v>449.9</v>
       </c>
     </row>
-    <row r="420" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="420" spans="2:3">
       <c r="B420" s="39">
         <v>41373</v>
       </c>
@@ -21073,7 +19354,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="421" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="421" spans="2:3">
       <c r="B421" s="39">
         <v>41374</v>
       </c>
@@ -21081,7 +19362,7 @@
         <v>447.95</v>
       </c>
     </row>
-    <row r="422" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="422" spans="2:3">
       <c r="B422" s="39">
         <v>41375</v>
       </c>
@@ -21089,7 +19370,7 @@
         <v>444.5</v>
       </c>
     </row>
-    <row r="423" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="423" spans="2:3">
       <c r="B423" s="39">
         <v>41376</v>
       </c>
@@ -21097,7 +19378,7 @@
         <v>440.6</v>
       </c>
     </row>
-    <row r="424" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="424" spans="2:3">
       <c r="B424" s="39">
         <v>41379</v>
       </c>
@@ -21105,7 +19386,7 @@
         <v>418.2</v>
       </c>
     </row>
-    <row r="425" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="425" spans="2:3">
       <c r="B425" s="39">
         <v>41380</v>
       </c>
@@ -21113,7 +19394,7 @@
         <v>438.55</v>
       </c>
     </row>
-    <row r="426" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="426" spans="2:3">
       <c r="B426" s="39">
         <v>41381</v>
       </c>
@@ -21121,7 +19402,7 @@
         <v>436.35</v>
       </c>
     </row>
-    <row r="427" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="427" spans="2:3">
       <c r="B427" s="39">
         <v>41382</v>
       </c>
@@ -21129,7 +19410,7 @@
         <v>452.15</v>
       </c>
     </row>
-    <row r="428" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="428" spans="2:3">
       <c r="B428" s="39">
         <v>41386</v>
       </c>
@@ -21137,7 +19418,7 @@
         <v>464.2</v>
       </c>
     </row>
-    <row r="429" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="429" spans="2:3">
       <c r="B429" s="39">
         <v>41387</v>
       </c>
@@ -21145,7 +19426,7 @@
         <v>450.8</v>
       </c>
     </row>
-    <row r="430" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="430" spans="2:3">
       <c r="B430" s="39">
         <v>41389</v>
       </c>
@@ -21153,7 +19434,7 @@
         <v>454.45</v>
       </c>
     </row>
-    <row r="431" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="431" spans="2:3">
       <c r="B431" s="39">
         <v>41390</v>
       </c>
@@ -21161,7 +19442,7 @@
         <v>462.3</v>
       </c>
     </row>
-    <row r="432" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="432" spans="2:3">
       <c r="B432" s="39">
         <v>41393</v>
       </c>
@@ -21169,7 +19450,7 @@
         <v>448.25</v>
       </c>
     </row>
-    <row r="433" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="433" spans="2:3">
       <c r="B433" s="39">
         <v>41394</v>
       </c>
@@ -21177,7 +19458,7 @@
         <v>456.85</v>
       </c>
     </row>
-    <row r="434" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="434" spans="2:3">
       <c r="B434" s="39">
         <v>41396</v>
       </c>
@@ -21185,7 +19466,7 @@
         <v>452.5</v>
       </c>
     </row>
-    <row r="435" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="435" spans="2:3">
       <c r="B435" s="39">
         <v>41397</v>
       </c>
@@ -21193,7 +19474,7 @@
         <v>447.35</v>
       </c>
     </row>
-    <row r="436" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="436" spans="2:3">
       <c r="B436" s="39">
         <v>41400</v>
       </c>
@@ -21201,7 +19482,7 @@
         <v>448.1</v>
       </c>
     </row>
-    <row r="437" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="437" spans="2:3">
       <c r="B437" s="39">
         <v>41401</v>
       </c>
@@ -21209,7 +19490,7 @@
         <v>451.65</v>
       </c>
     </row>
-    <row r="438" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="438" spans="2:3">
       <c r="B438" s="39">
         <v>41402</v>
       </c>
@@ -21217,7 +19498,7 @@
         <v>450.2</v>
       </c>
     </row>
-    <row r="439" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="439" spans="2:3">
       <c r="B439" s="39">
         <v>41403</v>
       </c>
@@ -21225,7 +19506,7 @@
         <v>447.6</v>
       </c>
     </row>
-    <row r="440" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="440" spans="2:3">
       <c r="B440" s="39">
         <v>41404</v>
       </c>
@@ -21233,7 +19514,7 @@
         <v>455.95</v>
       </c>
     </row>
-    <row r="441" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="441" spans="2:3">
       <c r="B441" s="39">
         <v>41405</v>
       </c>
@@ -21241,7 +19522,7 @@
         <v>455.85</v>
       </c>
     </row>
-    <row r="442" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="442" spans="2:3">
       <c r="B442" s="39">
         <v>41407</v>
       </c>
@@ -21249,7 +19530,7 @@
         <v>445.9</v>
       </c>
     </row>
-    <row r="443" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="443" spans="2:3">
       <c r="B443" s="39">
         <v>41408</v>
       </c>
@@ -21257,7 +19538,7 @@
         <v>457.2</v>
       </c>
     </row>
-    <row r="444" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="444" spans="2:3">
       <c r="B444" s="39">
         <v>41409</v>
       </c>
@@ -21265,7 +19546,7 @@
         <v>476.6</v>
       </c>
     </row>
-    <row r="445" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="445" spans="2:3">
       <c r="B445" s="39">
         <v>41410</v>
       </c>
@@ -21273,7 +19554,7 @@
         <v>481.95</v>
       </c>
     </row>
-    <row r="446" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="446" spans="2:3">
       <c r="B446" s="39">
         <v>41411</v>
       </c>
@@ -21281,7 +19562,7 @@
         <v>476.15</v>
       </c>
     </row>
-    <row r="447" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="447" spans="2:3">
       <c r="B447" s="39">
         <v>41414</v>
       </c>
@@ -21289,7 +19570,7 @@
         <v>469.5</v>
       </c>
     </row>
-    <row r="448" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="448" spans="2:3">
       <c r="B448" s="39">
         <v>41415</v>
       </c>
@@ -21297,7 +19578,7 @@
         <v>468.3</v>
       </c>
     </row>
-    <row r="449" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="449" spans="2:3">
       <c r="B449" s="39">
         <v>41416</v>
       </c>
@@ -21305,7 +19586,7 @@
         <v>463.1</v>
       </c>
     </row>
-    <row r="450" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="450" spans="2:3">
       <c r="B450" s="39">
         <v>41417</v>
       </c>
@@ -21313,7 +19594,7 @@
         <v>449.4</v>
       </c>
     </row>
-    <row r="451" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="451" spans="2:3">
       <c r="B451" s="39">
         <v>41418</v>
       </c>
@@ -21321,7 +19602,7 @@
         <v>451.55</v>
       </c>
     </row>
-    <row r="452" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="452" spans="2:3">
       <c r="B452" s="39">
         <v>41421</v>
       </c>
@@ -21329,7 +19610,7 @@
         <v>456.6</v>
       </c>
     </row>
-    <row r="453" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="453" spans="2:3">
       <c r="B453" s="39">
         <v>41422</v>
       </c>
@@ -21337,7 +19618,7 @@
         <v>455.9</v>
       </c>
     </row>
-    <row r="454" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="454" spans="2:3">
       <c r="B454" s="39">
         <v>41423</v>
       </c>
@@ -21345,7 +19626,7 @@
         <v>450.75</v>
       </c>
     </row>
-    <row r="455" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="455" spans="2:3">
       <c r="B455" s="39">
         <v>41424</v>
       </c>
@@ -21353,7 +19634,7 @@
         <v>450.85</v>
       </c>
     </row>
-    <row r="456" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="456" spans="2:3">
       <c r="B456" s="39">
         <v>41425</v>
       </c>
@@ -21361,7 +19642,7 @@
         <v>449.45</v>
       </c>
     </row>
-    <row r="457" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="457" spans="2:3">
       <c r="B457" s="39">
         <v>41428</v>
       </c>
@@ -21369,7 +19650,7 @@
         <v>457.95</v>
       </c>
     </row>
-    <row r="458" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="458" spans="2:3">
       <c r="B458" s="39">
         <v>41429</v>
       </c>
@@ -21377,7 +19658,7 @@
         <v>457.65</v>
       </c>
     </row>
-    <row r="459" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="459" spans="2:3">
       <c r="B459" s="39">
         <v>41430</v>
       </c>
@@ -21385,7 +19666,7 @@
         <v>457.95</v>
       </c>
     </row>
-    <row r="460" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="460" spans="2:3">
       <c r="B460" s="39">
         <v>41431</v>
       </c>
@@ -21393,7 +19674,7 @@
         <v>454.55</v>
       </c>
     </row>
-    <row r="461" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="461" spans="2:3">
       <c r="B461" s="39">
         <v>41432</v>
       </c>
@@ -21401,7 +19682,7 @@
         <v>448.65</v>
       </c>
     </row>
-    <row r="462" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="462" spans="2:3">
       <c r="B462" s="39">
         <v>41435</v>
       </c>
@@ -21409,7 +19690,7 @@
         <v>441.95</v>
       </c>
     </row>
-    <row r="463" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="463" spans="2:3">
       <c r="B463" s="39">
         <v>41436</v>
       </c>
@@ -21417,7 +19698,7 @@
         <v>426.35</v>
       </c>
     </row>
-    <row r="464" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="464" spans="2:3">
       <c r="B464" s="39">
         <v>41437</v>
       </c>
@@ -21425,7 +19706,7 @@
         <v>422.1</v>
       </c>
     </row>
-    <row r="465" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="465" spans="2:3">
       <c r="B465" s="39">
         <v>41438</v>
       </c>
@@ -21433,7 +19714,7 @@
         <v>422.05</v>
       </c>
     </row>
-    <row r="466" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="466" spans="2:3">
       <c r="B466" s="39">
         <v>41439</v>
       </c>
@@ -21441,7 +19722,7 @@
         <v>425.25</v>
       </c>
     </row>
-    <row r="467" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="467" spans="2:3">
       <c r="B467" s="39">
         <v>41442</v>
       </c>
@@ -21449,7 +19730,7 @@
         <v>431.6</v>
       </c>
     </row>
-    <row r="468" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="468" spans="2:3">
       <c r="B468" s="39">
         <v>41443</v>
       </c>
@@ -21457,7 +19738,7 @@
         <v>434.2</v>
       </c>
     </row>
-    <row r="469" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="469" spans="2:3">
       <c r="B469" s="39">
         <v>41444</v>
       </c>
@@ -21465,7 +19746,7 @@
         <v>442.1</v>
       </c>
     </row>
-    <row r="470" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="470" spans="2:3">
       <c r="B470" s="39">
         <v>41445</v>
       </c>
@@ -21473,7 +19754,7 @@
         <v>430.2</v>
       </c>
     </row>
-    <row r="471" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="471" spans="2:3">
       <c r="B471" s="39">
         <v>41446</v>
       </c>
@@ -21481,7 +19762,7 @@
         <v>417.45</v>
       </c>
     </row>
-    <row r="472" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="472" spans="2:3">
       <c r="B472" s="39">
         <v>41449</v>
       </c>
@@ -21489,7 +19770,7 @@
         <v>400.75</v>
       </c>
     </row>
-    <row r="473" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="473" spans="2:3">
       <c r="B473" s="39">
         <v>41450</v>
       </c>
@@ -21497,7 +19778,7 @@
         <v>409.95</v>
       </c>
     </row>
-    <row r="474" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="474" spans="2:3">
       <c r="B474" s="39">
         <v>41451</v>
       </c>
@@ -21505,7 +19786,7 @@
         <v>402.95</v>
       </c>
     </row>
-    <row r="475" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="475" spans="2:3">
       <c r="B475" s="39">
         <v>41452</v>
       </c>
@@ -21513,7 +19794,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="476" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="476" spans="2:3">
       <c r="B476" s="39">
         <v>41453</v>
       </c>
@@ -21521,7 +19802,7 @@
         <v>409.25</v>
       </c>
     </row>
-    <row r="477" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="477" spans="2:3">
       <c r="B477" s="39">
         <v>41456</v>
       </c>
@@ -21529,7 +19810,7 @@
         <v>417.4</v>
       </c>
     </row>
-    <row r="478" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="478" spans="2:3">
       <c r="B478" s="39">
         <v>41457</v>
       </c>
@@ -21537,7 +19818,7 @@
         <v>415.25</v>
       </c>
     </row>
-    <row r="479" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="479" spans="2:3">
       <c r="B479" s="39">
         <v>41458</v>
       </c>
@@ -21545,7 +19826,7 @@
         <v>401.75</v>
       </c>
     </row>
-    <row r="483" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="483" spans="2:5" ht="28">
       <c r="B483" s="54" t="s">
         <v>34</v>
       </c>
@@ -21559,7 +19840,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="484" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="484" spans="2:5">
       <c r="B484" s="27" t="s">
         <v>40</v>
       </c>
@@ -21573,7 +19854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="485" spans="2:5">
       <c r="B485" s="27" t="s">
         <v>39</v>
       </c>
@@ -21587,13 +19868,13 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="492" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="492" spans="2:5">
       <c r="C492" s="61" t="s">
         <v>34</v>
       </c>
       <c r="D492" s="61"/>
     </row>
-    <row r="493" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="493" spans="2:5">
       <c r="C493" s="62" t="s">
         <v>69</v>
       </c>
@@ -21601,7 +19882,7 @@
         <v>0.27529999999999999</v>
       </c>
     </row>
-    <row r="494" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="494" spans="2:5">
       <c r="C494" s="64" t="s">
         <v>70</v>
       </c>
@@ -21609,7 +19890,7 @@
         <v>0.35139999999999999</v>
       </c>
     </row>
-    <row r="495" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="495" spans="2:5">
       <c r="C495" s="62" t="s">
         <v>71</v>
       </c>
@@ -21617,7 +19898,7 @@
         <v>0.35349999999999998</v>
       </c>
     </row>
-    <row r="496" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="496" spans="2:5">
       <c r="C496" s="62" t="s">
         <v>72</v>
       </c>
@@ -21625,7 +19906,7 @@
         <v>0.42509999999999998</v>
       </c>
     </row>
-    <row r="504" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="504" spans="3:4">
       <c r="C504" s="64" t="s">
         <v>69</v>
       </c>
@@ -21633,7 +19914,7 @@
         <v>0.27529999999999999</v>
       </c>
     </row>
-    <row r="505" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="505" spans="3:4">
       <c r="C505" s="64" t="s">
         <v>70</v>
       </c>
@@ -21641,7 +19922,7 @@
         <v>0.35139999999999999</v>
       </c>
     </row>
-    <row r="506" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="506" spans="3:4">
       <c r="C506" s="64" t="s">
         <v>71</v>
       </c>
@@ -21649,7 +19930,7 @@
         <v>0.35349999999999998</v>
       </c>
     </row>
-    <row r="507" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="507" spans="3:4">
       <c r="C507" s="64" t="s">
         <v>72</v>
       </c>
@@ -21657,7 +19938,7 @@
         <v>0.42509999999999998</v>
       </c>
     </row>
-    <row r="515" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="515" spans="3:7">
       <c r="C515" s="67" t="s">
         <v>34</v>
       </c>
@@ -21670,7 +19951,7 @@
       <c r="F515" s="66"/>
       <c r="G515" s="66"/>
     </row>
-    <row r="516" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="516" spans="3:7">
       <c r="C516" s="67" t="s">
         <v>46</v>
       </c>
@@ -21683,7 +19964,7 @@
       <c r="F516" s="66"/>
       <c r="G516" s="66"/>
     </row>
-    <row r="517" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="517" spans="3:7">
       <c r="C517" s="67" t="s">
         <v>44</v>
       </c>
@@ -21696,7 +19977,7 @@
       <c r="F517" s="66"/>
       <c r="G517" s="66"/>
     </row>
-    <row r="518" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="518" spans="3:7">
       <c r="C518" s="67" t="s">
         <v>45</v>
       </c>
@@ -21711,14 +19992,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="C167:C479" calculatedColumn="1"/>
   </ignoredErrors>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
   <tableParts count="2">
+    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/phpdocx/template/MasterExcelFile.xlsx
+++ b/phpdocx/template/MasterExcelFile.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="74">
   <si>
     <t>Shareholding Pattern</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>Jun'13</t>
+  </si>
+  <si>
+    <t>Indexed Profit</t>
   </si>
 </sst>
 </file>
@@ -1397,11 +1400,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="136426424"/>
-        <c:axId val="136427600"/>
+        <c:axId val="594767880"/>
+        <c:axId val="594768664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="136426424"/>
+        <c:axId val="594767880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1411,7 +1414,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136427600"/>
+        <c:crossAx val="594768664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1419,7 +1422,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136427600"/>
+        <c:axId val="594768664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1430,7 +1433,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136426424"/>
+        <c:crossAx val="594767880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1568,6 +1571,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1684,6 +1688,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1798,6 +1803,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1862,11 +1868,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="322285336"/>
-        <c:axId val="322292392"/>
+        <c:axId val="361709216"/>
+        <c:axId val="361712744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="322285336"/>
+        <c:axId val="361709216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1906,7 +1912,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322292392"/>
+        <c:crossAx val="361712744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1914,7 +1920,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="322292392"/>
+        <c:axId val="361712744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2025,7 +2031,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322285336"/>
+        <c:crossAx val="361709216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.000000000000001E-2"/>
@@ -2223,8 +2229,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="322289648"/>
-        <c:axId val="322286512"/>
+        <c:axId val="361705688"/>
+        <c:axId val="361710000"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2283,19 +2289,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>111.3821138211382</c:v>
+                  <c:v>123.57723577235772</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>116.26016260162602</c:v>
+                  <c:v>119.51219512195121</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>122.76422764227641</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>119.51219512195121</c:v>
+                  <c:v>116.26016260162602</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>123.57723577235772</c:v>
+                  <c:v>111.3821138211382</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2311,7 +2317,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Net Profit</c:v>
+                  <c:v>Indexed Profit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2356,19 +2362,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73.205080756887725</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58.74010519681994</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49.534878122122052</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43.096908110525554</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2385,11 +2391,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="322290432"/>
-        <c:axId val="322286904"/>
+        <c:axId val="361711568"/>
+        <c:axId val="361706080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="322289648"/>
+        <c:axId val="361705688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2417,7 +2423,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322286512"/>
+        <c:crossAx val="361710000"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2425,7 +2431,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="322286512"/>
+        <c:axId val="361710000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -2490,12 +2496,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322289648"/>
+        <c:crossAx val="361705688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="322286904"/>
+        <c:axId val="361706080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2505,12 +2511,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="322290432"/>
+        <c:crossAx val="361711568"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="322290432"/>
+        <c:axId val="361711568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2520,7 +2526,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="322286904"/>
+        <c:crossAx val="361706080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2697,6 +2703,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2746,11 +2753,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="322287296"/>
-        <c:axId val="322290040"/>
+        <c:axId val="361706472"/>
+        <c:axId val="361706864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="322287296"/>
+        <c:axId val="361706472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2770,7 +2777,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322290040"/>
+        <c:crossAx val="361706864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2778,7 +2785,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="322290040"/>
+        <c:axId val="361706864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2798,7 +2805,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322287296"/>
+        <c:crossAx val="361706472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2916,6 +2923,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2977,11 +2985,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="322288080"/>
-        <c:axId val="322288472"/>
+        <c:axId val="121344704"/>
+        <c:axId val="121343136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="322288080"/>
+        <c:axId val="121344704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3001,7 +3009,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322288472"/>
+        <c:crossAx val="121343136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3009,7 +3017,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="322288472"/>
+        <c:axId val="121343136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3029,7 +3037,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322288080"/>
+        <c:crossAx val="121344704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3311,7 +3319,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -3362,11 +3369,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="322819960"/>
-        <c:axId val="322823880"/>
+        <c:axId val="121342352"/>
+        <c:axId val="121345488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="322819960"/>
+        <c:axId val="121342352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3386,7 +3393,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322823880"/>
+        <c:crossAx val="121345488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3394,7 +3401,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="322823880"/>
+        <c:axId val="121345488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3414,7 +3421,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322819960"/>
+        <c:crossAx val="121342352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3594,7 +3601,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3704,7 +3710,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3763,11 +3768,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="322818392"/>
-        <c:axId val="322821136"/>
+        <c:axId val="121345096"/>
+        <c:axId val="121340784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="322818392"/>
+        <c:axId val="121345096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3807,7 +3812,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322821136"/>
+        <c:crossAx val="121340784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3815,7 +3820,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="322821136"/>
+        <c:axId val="121340784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3854,7 +3859,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322818392"/>
+        <c:crossAx val="121345096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4044,6 +4049,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4099,11 +4105,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="322823096"/>
-        <c:axId val="322823488"/>
+        <c:axId val="121344312"/>
+        <c:axId val="121345880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="322823096"/>
+        <c:axId val="121344312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4123,7 +4129,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322823488"/>
+        <c:crossAx val="121345880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4131,7 +4137,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="322823488"/>
+        <c:axId val="121345880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4151,7 +4157,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322823096"/>
+        <c:crossAx val="121344312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4279,6 +4285,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4334,11 +4341,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="322817608"/>
-        <c:axId val="322818000"/>
+        <c:axId val="121346272"/>
+        <c:axId val="121340392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="322817608"/>
+        <c:axId val="121346272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4358,7 +4365,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322818000"/>
+        <c:crossAx val="121340392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4366,7 +4373,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="322818000"/>
+        <c:axId val="121340392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4386,7 +4393,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322817608"/>
+        <c:crossAx val="121346272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4482,7 +4489,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
@@ -4516,6 +4525,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4565,8 +4575,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="322821920"/>
-        <c:axId val="322819176"/>
+        <c:axId val="121339216"/>
+        <c:axId val="121339608"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4643,11 +4653,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="322822312"/>
-        <c:axId val="322819568"/>
+        <c:axId val="121342744"/>
+        <c:axId val="121341960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="322821920"/>
+        <c:axId val="121339216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4667,7 +4677,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322819176"/>
+        <c:crossAx val="121339608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4675,7 +4685,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="322819176"/>
+        <c:axId val="121339608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4709,6 +4719,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
@@ -4725,12 +4736,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322821920"/>
+        <c:crossAx val="121339216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="322819568"/>
+        <c:axId val="121341960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4757,6 +4768,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
@@ -4773,12 +4785,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322822312"/>
+        <c:crossAx val="121342744"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="322822312"/>
+        <c:axId val="121342744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4788,7 +4800,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="322819568"/>
+        <c:crossAx val="121341960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4825,6 +4837,545 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId2"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10634903037761877"/>
+          <c:y val="4.9490026830164825E-2"/>
+          <c:w val="0.76538810796734513"/>
+          <c:h val="0.69262232979848626"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$530</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ED Remuneration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="EB641B"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$P$531:$P$535</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>FY10/11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FY11/12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FY12/13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FY13/14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FY14/15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$531:$Q$535</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="359869496"/>
+        <c:axId val="359870672"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$530</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Indexed TSR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="464646"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$P$531:$P$535</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>FY10/11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FY11/12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FY12/13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FY13/14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FY14/15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$531:$R$535</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>123.57723577235772</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>119.51219512195121</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>122.76422764227641</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>116.26016260162602</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>111.3821138211382</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$530</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Indexed Profit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFD200"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$P$531:$P$535</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>FY10/11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FY11/12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FY12/13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FY13/14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FY14/15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$531:$S$535</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="359874592"/>
+        <c:axId val="359872632"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="359869496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="808080"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="359870672"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="0"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="359870672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="900"/>
+                  <a:t>ED Remuneration (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="900">
+                    <a:latin typeface="Rupee Foradian"/>
+                  </a:rPr>
+                  <a:t>`</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="900"/>
+                  <a:t> Crore)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0"/>
+              <c:y val="0.14476936810335991"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="808080"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="359869496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="359872632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="359874592"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="359874592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="359872632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0"/>
+          <c:y val="0.7865500210911136"/>
+          <c:w val="1"/>
+          <c:h val="0.17996783605174352"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
@@ -5103,11 +5654,11 @@
         </c:dLbls>
         <c:gapWidth val="90"/>
         <c:overlap val="-27"/>
-        <c:axId val="136426032"/>
-        <c:axId val="321610192"/>
+        <c:axId val="364486200"/>
+        <c:axId val="364488552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="136426032"/>
+        <c:axId val="364486200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5144,7 +5695,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321610192"/>
+        <c:crossAx val="364488552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5152,7 +5703,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="321610192"/>
+        <c:axId val="364488552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5241,7 +5792,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136426032"/>
+        <c:crossAx val="364486200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5405,9 +5956,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -5426,9 +5975,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -5447,9 +5994,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -5468,9 +6013,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="&quot;₹&quot;\ #,##0.00" sourceLinked="0"/>
@@ -5500,7 +6043,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -5565,8 +6107,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="321605488"/>
-        <c:axId val="321605096"/>
+        <c:axId val="364489336"/>
+        <c:axId val="364487376"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5623,9 +6165,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -5644,9 +6184,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -5678,7 +6216,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -5740,11 +6277,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="321610584"/>
-        <c:axId val="321606664"/>
+        <c:axId val="364492864"/>
+        <c:axId val="364492472"/>
       </c:lineChart>
       <c:valAx>
-        <c:axId val="321605096"/>
+        <c:axId val="364487376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5795,12 +6332,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321605488"/>
+        <c:crossAx val="364489336"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="321605488"/>
+        <c:axId val="364489336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5820,7 +6357,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321605096"/>
+        <c:crossAx val="364487376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5828,7 +6365,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="321606664"/>
+        <c:axId val="364492472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5879,12 +6416,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321610584"/>
+        <c:crossAx val="364492864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="321610584"/>
+        <c:axId val="364492864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5894,7 +6431,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="321606664"/>
+        <c:crossAx val="364492472"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6213,8 +6750,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="321609800"/>
-        <c:axId val="321608232"/>
+        <c:axId val="364487768"/>
+        <c:axId val="364489728"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6398,11 +6935,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="321603920"/>
-        <c:axId val="321604312"/>
+        <c:axId val="364486592"/>
+        <c:axId val="364491688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="321609800"/>
+        <c:axId val="364487768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6422,7 +6959,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321608232"/>
+        <c:crossAx val="364489728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6430,7 +6967,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="321608232"/>
+        <c:axId val="364489728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6468,12 +7005,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321609800"/>
+        <c:crossAx val="364487768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="321604312"/>
+        <c:axId val="364491688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6520,12 +7057,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321603920"/>
+        <c:crossAx val="364486592"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="321603920"/>
+        <c:axId val="364486592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6535,7 +7072,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="321604312"/>
+        <c:crossAx val="364491688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6822,11 +7359,11 @@
         </c:dLbls>
         <c:bubbleScale val="100"/>
         <c:showNegBubbles val="0"/>
-        <c:axId val="321603136"/>
-        <c:axId val="321606272"/>
+        <c:axId val="364486984"/>
+        <c:axId val="364492080"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="321603136"/>
+        <c:axId val="364486984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6880,12 +7417,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321606272"/>
+        <c:crossAx val="364492080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="321606272"/>
+        <c:axId val="364492080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6939,7 +7476,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321603136"/>
+        <c:crossAx val="364486984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7037,7 +7574,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -7066,6 +7605,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -7161,6 +7701,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -7237,7 +7778,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -7255,7 +7798,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -7273,7 +7818,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -7351,11 +7898,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="321607056"/>
-        <c:axId val="321607448"/>
+        <c:axId val="364485808"/>
+        <c:axId val="364490120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="321607056"/>
+        <c:axId val="364485808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7375,7 +7922,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321607448"/>
+        <c:crossAx val="364490120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7383,7 +7930,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="321607448"/>
+        <c:axId val="364490120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7393,7 +7940,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="321607056"/>
+        <c:crossAx val="364485808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9427,11 +9974,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="321603528"/>
-        <c:axId val="321604704"/>
+        <c:axId val="361711960"/>
+        <c:axId val="361712352"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="321603528"/>
+        <c:axId val="361711960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="41449"/>
@@ -9453,7 +10000,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321604704"/>
+        <c:crossAx val="361712352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -9462,7 +10009,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="321604704"/>
+        <c:axId val="361712352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="300"/>
@@ -9497,7 +10044,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321603528"/>
+        <c:crossAx val="361711960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9639,6 +10186,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -9720,6 +10268,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -9791,7 +10340,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -9825,6 +10376,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -9869,11 +10421,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="322292784"/>
-        <c:axId val="322291608"/>
+        <c:axId val="361710392"/>
+        <c:axId val="361707256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="322292784"/>
+        <c:axId val="361710392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9893,7 +10445,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322291608"/>
+        <c:crossAx val="361707256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9901,7 +10453,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="322291608"/>
+        <c:axId val="361707256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9921,7 +10473,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322292784"/>
+        <c:crossAx val="361710392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -12409,15 +12961,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>488950</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>173990</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12647,6 +13199,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>528</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>540</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="24" name="Chart 23"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13936,6 +14520,56 @@
             <a:t> Net Profits</a:t>
           </a:r>
           <a:endParaRPr lang="en-GB" sz="900"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00726</cdr:x>
+      <cdr:y>0.88893</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99967</cdr:x>
+      <cdr:y>0.99677</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Text Box 20"/>
+        <cdr:cNvSpPr txBox="1">
+          <a:spLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
+        </cdr:cNvSpPr>
+      </cdr:nvSpPr>
+      <cdr:spPr bwMode="auto">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="25867" y="1777527"/>
+          <a:ext cx="3535942" cy="215630"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+        <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" vert="horz" wrap="square" lIns="0" tIns="45720" rIns="0" bIns="45720" anchor="t" anchorCtr="0" upright="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="900"/>
+            <a:t>Graph xx: Executive compensation vs. Total shareholders return</a:t>
+          </a:r>
         </a:p>
       </cdr:txBody>
     </cdr:sp>
@@ -16226,6 +16860,287 @@
 </a:themeOverride>
 </file>
 
+<file path=xl/theme/themeOverride12.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Custom 3">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="464646"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="DEF5FA"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="00B050"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="DA1F28"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="EB641B"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="39639D"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="FFD200"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="1E1458"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="FF8119"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="44B9E8"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Cambria"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Angsana New"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Cordia New"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="50000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="35000">
+            <a:schemeClr val="phClr">
+              <a:tint val="37000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:tint val="15000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="1"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:shade val="51000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="80000">
+            <a:schemeClr val="phClr">
+              <a:shade val="93000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="94000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t">
+            <a:rot lat="0" lon="0" rev="1200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="63500" h="25400"/>
+        </a:sp3d>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="40000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="40000">
+            <a:schemeClr val="phClr">
+              <a:tint val="45000"/>
+              <a:shade val="99000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="20000"/>
+              <a:satMod val="255000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="80000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="30000"/>
+              <a:satMod val="200000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
 <a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <a:clrScheme name="Custom 3">
@@ -18059,10 +18974,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="B3:S518"/>
+  <dimension ref="B3:S540"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A527" workbookViewId="0">
+      <selection activeCell="A536" sqref="A536"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18602,7 +19517,7 @@
         <v>51</v>
       </c>
       <c r="S109" s="27" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
     </row>
     <row r="110" spans="2:19" x14ac:dyDescent="0.35">
@@ -18627,12 +19542,12 @@
         <v>6</v>
       </c>
       <c r="R110" s="27">
-        <f>D110</f>
-        <v>111.3821138211382</v>
+        <f>D114</f>
+        <v>123.57723577235772</v>
       </c>
       <c r="S110" s="27">
-        <f>100*(POWER((E114/$E$115),(1/1))-1)</f>
-        <v>100</v>
+        <f>E114/$E$115*100</f>
+        <v>200</v>
       </c>
     </row>
     <row r="111" spans="2:19" x14ac:dyDescent="0.35">
@@ -18657,12 +19572,12 @@
         <v>5</v>
       </c>
       <c r="R111" s="27">
-        <f>D111</f>
-        <v>116.26016260162602</v>
+        <f>D113</f>
+        <v>119.51219512195121</v>
       </c>
       <c r="S111" s="27">
-        <f>100*(POWER((E113/$E$115),(1/2))-1)</f>
-        <v>73.205080756887725</v>
+        <f>E113/$E$115*100</f>
+        <v>300</v>
       </c>
     </row>
     <row r="112" spans="2:19" x14ac:dyDescent="0.35">
@@ -18691,8 +19606,8 @@
         <v>122.76422764227641</v>
       </c>
       <c r="S112" s="27">
-        <f>100*(POWER((E112/$E$115),(1/3))-1)</f>
-        <v>58.74010519681994</v>
+        <f>E112/$E$115*100</f>
+        <v>400</v>
       </c>
     </row>
     <row r="113" spans="2:19" x14ac:dyDescent="0.35">
@@ -18717,12 +19632,12 @@
         <v>3</v>
       </c>
       <c r="R113" s="27">
-        <f>D113</f>
-        <v>119.51219512195121</v>
+        <f>D111</f>
+        <v>116.26016260162602</v>
       </c>
       <c r="S113" s="27">
-        <f>100*(POWER((E111/$E$115),(1/4))-1)</f>
-        <v>49.534878122122052</v>
+        <f>E111/$E$115*100</f>
+        <v>500</v>
       </c>
     </row>
     <row r="114" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -18747,12 +19662,12 @@
         <v>2</v>
       </c>
       <c r="R114" s="27">
-        <f>D114</f>
-        <v>123.57723577235772</v>
+        <f>D110</f>
+        <v>111.3821138211382</v>
       </c>
       <c r="S114" s="27">
-        <f>100*(POWER((E110/$E$115),(1/5))-1)</f>
-        <v>43.096908110525554</v>
+        <f>E110/$E$115*100</f>
+        <v>600</v>
       </c>
     </row>
     <row r="115" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -18765,6 +19680,7 @@
         <v>1</v>
       </c>
     </row>
+    <row r="118" spans="2:19" s="66" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="122" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C122" s="48" t="s">
         <v>34</v>
@@ -21648,6 +22564,193 @@
       <c r="F518" s="66"/>
       <c r="G518" s="66"/>
     </row>
+    <row r="530" spans="2:19" s="66" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P530" s="27"/>
+      <c r="Q530" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="R530" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="S530" s="27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="531" spans="2:19" s="66" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B531" s="29"/>
+      <c r="C531" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D531" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E531" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="P531" s="27" t="str">
+        <f>B536</f>
+        <v>FY10/11</v>
+      </c>
+      <c r="Q531" s="27">
+        <f>C536</f>
+        <v>6</v>
+      </c>
+      <c r="R531" s="27">
+        <f>D536</f>
+        <v>123.57723577235772</v>
+      </c>
+      <c r="S531" s="27">
+        <f>E536/$E$537*100</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="532" spans="2:19" s="66" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B532" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C532" s="27">
+        <v>2</v>
+      </c>
+      <c r="D532" s="27">
+        <v>111.3821138211382</v>
+      </c>
+      <c r="E532" s="43">
+        <v>6</v>
+      </c>
+      <c r="P532" s="27" t="str">
+        <f>B535</f>
+        <v>FY11/12</v>
+      </c>
+      <c r="Q532" s="27">
+        <f>C535</f>
+        <v>5</v>
+      </c>
+      <c r="R532" s="27">
+        <f>D535</f>
+        <v>119.51219512195121</v>
+      </c>
+      <c r="S532" s="27">
+        <f>E535/$E$537*100</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="533" spans="2:19" s="66" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B533" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C533" s="27">
+        <v>3</v>
+      </c>
+      <c r="D533" s="27">
+        <v>116.26016260162602</v>
+      </c>
+      <c r="E533" s="43">
+        <v>5</v>
+      </c>
+      <c r="P533" s="27" t="str">
+        <f>B534</f>
+        <v>FY12/13</v>
+      </c>
+      <c r="Q533" s="27">
+        <f>C534</f>
+        <v>4</v>
+      </c>
+      <c r="R533" s="27">
+        <f>D534</f>
+        <v>122.76422764227641</v>
+      </c>
+      <c r="S533" s="27">
+        <f>E534/$E$537*100</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="534" spans="2:19" s="66" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B534" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C534" s="27">
+        <v>4</v>
+      </c>
+      <c r="D534" s="27">
+        <v>122.76422764227641</v>
+      </c>
+      <c r="E534" s="43">
+        <v>4</v>
+      </c>
+      <c r="P534" s="27" t="str">
+        <f>B533</f>
+        <v>FY13/14</v>
+      </c>
+      <c r="Q534" s="27">
+        <f>C533</f>
+        <v>3</v>
+      </c>
+      <c r="R534" s="27">
+        <f>D533</f>
+        <v>116.26016260162602</v>
+      </c>
+      <c r="S534" s="27">
+        <f>E533/$E$537*100</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="535" spans="2:19" s="66" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B535" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C535" s="27">
+        <v>5</v>
+      </c>
+      <c r="D535" s="27">
+        <v>119.51219512195121</v>
+      </c>
+      <c r="E535" s="43">
+        <v>3</v>
+      </c>
+      <c r="P535" s="27" t="str">
+        <f>B532</f>
+        <v>FY14/15</v>
+      </c>
+      <c r="Q535" s="27">
+        <f>C532</f>
+        <v>2</v>
+      </c>
+      <c r="R535" s="27">
+        <f>D532</f>
+        <v>111.3821138211382</v>
+      </c>
+      <c r="S535" s="27">
+        <f>E532/$E$537*100</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="536" spans="2:19" s="66" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B536" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C536" s="44">
+        <v>6</v>
+      </c>
+      <c r="D536" s="44">
+        <v>123.57723577235772</v>
+      </c>
+      <c r="E536" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="537" spans="2:19" s="66" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B537" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C537" s="44"/>
+      <c r="D537" s="44"/>
+      <c r="E537" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="2:19" s="66" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="539" spans="2:19" s="66" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="540" spans="2:19" s="66" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
